--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_19_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_19_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>959494.8479244612</v>
+        <v>954441.1732098398</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24104047.79063755</v>
+        <v>24104047.79063754</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8461764.091366261</v>
+        <v>8461764.091366265</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5546492.304575041</v>
+        <v>5546492.30457504</v>
       </c>
     </row>
     <row r="11">
@@ -1378,16 +1378,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>285.807623447931</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>2.701627844419818</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>208.4825465767483</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>245.3861991829164</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1457,16 +1457,16 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E12" t="n">
-        <v>112.8015559274654</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>104.7712654402038</v>
       </c>
       <c r="H12" t="n">
-        <v>58.94334016289027</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1508,7 +1508,7 @@
         <v>195.3017141927292</v>
       </c>
       <c r="V12" t="n">
-        <v>211.5744117368965</v>
+        <v>170.6777613677282</v>
       </c>
       <c r="W12" t="n">
         <v>211.1008365810345</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>139.5473206610679</v>
       </c>
       <c r="I13" t="n">
-        <v>86.2153968693336</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.10931561104033</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>167.7412420701844</v>
       </c>
       <c r="T13" t="n">
-        <v>167.2039544456432</v>
+        <v>91.17656443857834</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9176257340516</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
@@ -1624,10 +1624,10 @@
         <v>402.4936277569416</v>
       </c>
       <c r="H14" t="n">
-        <v>285.807623447931</v>
+        <v>265.6097269929696</v>
       </c>
       <c r="I14" t="n">
-        <v>2.701627844419818</v>
+        <v>2.701627844419789</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.3180969423526</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>230.0423550269637</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1697,10 +1697,10 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
-        <v>107.8702810193205</v>
+        <v>52.45700824276043</v>
       </c>
       <c r="G15" t="n">
-        <v>104.7712654402038</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1736,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>85.56893955755871</v>
       </c>
       <c r="T15" t="n">
-        <v>78.5017873797175</v>
+        <v>153.1173860389223</v>
       </c>
       <c r="U15" t="n">
         <v>195.3017141927292</v>
@@ -1773,19 +1773,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
         <v>164.6146493334786</v>
       </c>
       <c r="H16" t="n">
-        <v>70.10077294017816</v>
+        <v>139.5473206610679</v>
       </c>
       <c r="I16" t="n">
-        <v>86.2153968693336</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.10931561104033</v>
+        <v>41.10931561104032</v>
       </c>
       <c r="S16" t="n">
-        <v>167.7412420701844</v>
+        <v>152.6904528023826</v>
       </c>
       <c r="T16" t="n">
-        <v>233.0375990857039</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9176257340516</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>230.8721373778992</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>230.5904834644703</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>84.99499061398262</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -1922,13 +1922,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.341063487135404</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C18" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D18" t="n">
-        <v>115.7281862028015</v>
+        <v>60.31491342624147</v>
       </c>
       <c r="E18" t="n">
         <v>119.2878878475953</v>
@@ -1937,10 +1937,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
-        <v>104.7712654402038</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>58.94334016289027</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>85.56893955755871</v>
       </c>
       <c r="T18" t="n">
         <v>153.1173860389223</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20.38175222927302</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.6146493334786</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.10931561104032</v>
+        <v>31.40987238136537</v>
       </c>
       <c r="S19" t="n">
         <v>167.7412420701844</v>
       </c>
       <c r="T19" t="n">
-        <v>233.0375990857039</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9176257340516</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>367.0628908070879</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2.701627844419818</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>84.99499061398262</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>21.20630297014657</v>
       </c>
       <c r="U20" t="n">
-        <v>254.3180969423526</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>61.7427753706342</v>
+        <v>85.56893955755871</v>
       </c>
       <c r="T21" t="n">
         <v>153.1173860389223</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>133.9817758528837</v>
       </c>
       <c r="V21" t="n">
         <v>211.5744117368965</v>
@@ -2228,7 +2228,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y21" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>164.6146493334786</v>
       </c>
       <c r="H22" t="n">
-        <v>139.5473206610679</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>86.2153968693336</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>185.1866953480218</v>
+        <v>233.0375990857039</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9176257340516</v>
+        <v>234.6563745917786</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2329,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>48.14018404462358</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>285.807623447931</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.99499061398262</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>210.5842916762861</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>254.3180969423526</v>
@@ -2380,13 +2380,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>75.26593527195223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2411,7 +2411,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>104.7712654402038</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2450,13 +2450,13 @@
         <v>85.56893955755871</v>
       </c>
       <c r="T24" t="n">
-        <v>97.7041132623623</v>
+        <v>153.1173860389223</v>
       </c>
       <c r="U24" t="n">
         <v>195.3017141927292</v>
       </c>
       <c r="V24" t="n">
-        <v>211.5744117368965</v>
+        <v>209.197813559941</v>
       </c>
       <c r="W24" t="n">
         <v>211.1008365810345</v>
@@ -2465,7 +2465,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y24" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>43.40960058039398</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>43.40960058039406</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>233.0375990857039</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>306.6992602967725</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2.701627844419818</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.5981634561618</v>
+        <v>84.99499061398262</v>
       </c>
       <c r="T26" t="n">
         <v>210.5842916762861</v>
       </c>
       <c r="U26" t="n">
-        <v>254.3180969423526</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>104.7712654402038</v>
       </c>
       <c r="H27" t="n">
-        <v>58.94334016289027</v>
+        <v>35.1171759759654</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,13 +2684,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>85.56893955755871</v>
       </c>
       <c r="T27" t="n">
-        <v>19.55844721682725</v>
+        <v>153.1173860389223</v>
       </c>
       <c r="U27" t="n">
-        <v>195.3017141927292</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>211.5744117368965</v>
@@ -2715,7 +2715,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>107.0647609521974</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>167.7412420701844</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9176257340516</v>
+        <v>225.6387686994504</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>153.1195323602491</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>285.807623447931</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2.701627844419818</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>84.99499061398262</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.5842916762861</v>
       </c>
       <c r="U29" t="n">
-        <v>228.2360081831826</v>
+        <v>254.3180969423526</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2885,10 +2885,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>38.76077309947197</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>58.94334016289027</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>30.15566678099859</v>
+        <v>85.56893955755871</v>
       </c>
       <c r="T30" t="n">
-        <v>153.1173860389223</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>195.3017141927292</v>
@@ -2958,13 +2958,13 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>136.8337388438843</v>
+        <v>164.6146493334786</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>41.10931561104033</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>167.7412420701844</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>131.8964492874408</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>242.4837728553439</v>
+        <v>402.4936277569416</v>
       </c>
       <c r="H32" t="n">
-        <v>285.807623447931</v>
+        <v>130.3052964734388</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2.701627844419818</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>132.6551205385437</v>
@@ -3125,7 +3125,7 @@
         <v>104.7712654402038</v>
       </c>
       <c r="H33" t="n">
-        <v>58.94334016289027</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,10 +3158,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>64.28440365002565</v>
       </c>
       <c r="T33" t="n">
-        <v>19.55844721682702</v>
+        <v>153.1173860389223</v>
       </c>
       <c r="U33" t="n">
         <v>195.3017141927292</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
@@ -3204,10 +3204,10 @@
         <v>164.6146493334786</v>
       </c>
       <c r="H34" t="n">
-        <v>139.5473206610679</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>86.2153968693336</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>167.7412420701844</v>
       </c>
       <c r="T34" t="n">
-        <v>19.88745322212062</v>
+        <v>30.11583760678323</v>
       </c>
       <c r="U34" t="n">
         <v>279.9176257340516</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>151.9224608058098</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>402.4936277569416</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>285.807623447931</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2.701627844419818</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.99499061398262</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>115.9788163045311</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3353,13 +3353,13 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E36" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>30.15566678099832</v>
+        <v>63.87461507103526</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>85.56893955755871</v>
       </c>
       <c r="T36" t="n">
         <v>153.1173860389223</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>34.44067079003735</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
@@ -3441,7 +3441,7 @@
         <v>164.6146493334786</v>
       </c>
       <c r="H37" t="n">
-        <v>87.54512171571167</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>167.7412420701844</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.0375990857039</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9176257340516</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -3489,10 +3489,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>277.1046096720199</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>226.422878794125</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2.701627844419818</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>84.99499061398262</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.5842916762861</v>
       </c>
       <c r="U38" t="n">
-        <v>254.3180969423526</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3593,7 +3593,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
         <v>104.7712654402038</v>
@@ -3635,13 +3635,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>127.4287282361473</v>
+        <v>153.1173860389223</v>
       </c>
       <c r="U39" t="n">
         <v>195.3017141927292</v>
       </c>
       <c r="V39" t="n">
-        <v>211.5744117368965</v>
+        <v>78.01547291480128</v>
       </c>
       <c r="W39" t="n">
         <v>211.1008365810345</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>55.54049653092184</v>
+        <v>164.6146493334786</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>27.33388110038837</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>167.7412420701844</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>233.0375990857039</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9176257340516</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>2.701627844419818</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,16 +3796,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>142.355572508542</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>205.3512362656499</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -3833,7 +3833,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>30.15566678099832</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3869,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>85.56893955755871</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>153.1173860389223</v>
       </c>
       <c r="U42" t="n">
-        <v>139.8884414161686</v>
+        <v>195.3017141927292</v>
       </c>
       <c r="V42" t="n">
         <v>211.5744117368965</v>
@@ -3906,19 +3906,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>164.6146493334786</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>139.5473206610679</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>86.2153968693336</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>167.7412420701844</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>165.864861477266</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9176257340516</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>63.84465543725852</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2.701627844419818</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>254.3180969423526</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>21.97618022302512</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>55.08279119883924</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4064,16 +4064,16 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E45" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>52.45700824275999</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>4.931274908144549</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>58.94334016289027</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.6146493334786</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>86.2153968693336</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.10931561104033</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>167.7412420701844</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>233.0375990857039</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9176257340516</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>91.20059868106225</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>65.98885480561583</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1152.952916858541</v>
+        <v>857.5681511560075</v>
       </c>
       <c r="C11" t="n">
-        <v>1152.952916858541</v>
+        <v>857.5681511560075</v>
       </c>
       <c r="D11" t="n">
-        <v>748.4889869516014</v>
+        <v>453.104221249068</v>
       </c>
       <c r="E11" t="n">
-        <v>748.4889869516014</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="F11" t="n">
-        <v>327.4585749052889</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="G11" t="n">
-        <v>327.4585749052889</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="H11" t="n">
         <v>38.76400576596473</v>
@@ -5041,16 +5041,16 @@
         <v>36.03508875139925</v>
       </c>
       <c r="J11" t="n">
-        <v>143.8778192802974</v>
+        <v>143.8778192802979</v>
       </c>
       <c r="K11" t="n">
-        <v>326.0552168887696</v>
+        <v>326.05521688877</v>
       </c>
       <c r="L11" t="n">
-        <v>567.0076014019885</v>
+        <v>567.0076014019887</v>
       </c>
       <c r="M11" t="n">
-        <v>847.9396778919402</v>
+        <v>847.9396778919404</v>
       </c>
       <c r="N11" t="n">
         <v>1135.28612147837</v>
@@ -5062,31 +5062,31 @@
         <v>1614.212614402881</v>
       </c>
       <c r="Q11" t="n">
-        <v>1754.652407274058</v>
+        <v>1754.652407274059</v>
       </c>
       <c r="R11" t="n">
-        <v>1801.754437569962</v>
+        <v>1801.754437569963</v>
       </c>
       <c r="S11" t="n">
-        <v>1801.754437569962</v>
+        <v>1801.754437569963</v>
       </c>
       <c r="T11" t="n">
-        <v>1801.754437569962</v>
+        <v>1591.166006684358</v>
       </c>
       <c r="U11" t="n">
-        <v>1801.754437569962</v>
+        <v>1591.166006684358</v>
       </c>
       <c r="V11" t="n">
-        <v>1553.889589910451</v>
+        <v>1241.328452020839</v>
       </c>
       <c r="W11" t="n">
-        <v>1553.889589910451</v>
+        <v>857.5681511560075</v>
       </c>
       <c r="X11" t="n">
-        <v>1553.889589910451</v>
+        <v>857.5681511560075</v>
       </c>
       <c r="Y11" t="n">
-        <v>1152.952916858541</v>
+        <v>857.5681511560075</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>460.4070108036225</v>
+        <v>501.7167586512674</v>
       </c>
       <c r="C12" t="n">
-        <v>326.4119395525682</v>
+        <v>367.7216874002131</v>
       </c>
       <c r="D12" t="n">
-        <v>209.5147817719606</v>
+        <v>250.8245296196056</v>
       </c>
       <c r="E12" t="n">
-        <v>95.57381618866216</v>
+        <v>250.8245296196056</v>
       </c>
       <c r="F12" t="n">
-        <v>95.57381618866216</v>
+        <v>141.8646498021101</v>
       </c>
       <c r="G12" t="n">
-        <v>95.57381618866216</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="H12" t="n">
         <v>36.03508875139925</v>
       </c>
       <c r="I12" t="n">
-        <v>36.03508875139925</v>
+        <v>54.86182750109194</v>
       </c>
       <c r="J12" t="n">
-        <v>92.64425224016351</v>
+        <v>355.1393949644895</v>
       </c>
       <c r="K12" t="n">
-        <v>221.0510332309565</v>
+        <v>569.7515857563249</v>
       </c>
       <c r="L12" t="n">
-        <v>666.9852565295222</v>
+        <v>761.1709783472877</v>
       </c>
       <c r="M12" t="n">
-        <v>898.2021906234822</v>
+        <v>992.3879124412477</v>
       </c>
       <c r="N12" t="n">
-        <v>1141.374250146327</v>
+        <v>1235.559971964092</v>
       </c>
       <c r="O12" t="n">
-        <v>1536.985598331011</v>
+        <v>1449.01588185403</v>
       </c>
       <c r="P12" t="n">
-        <v>1700.472892794594</v>
+        <v>1612.503176317613</v>
       </c>
       <c r="Q12" t="n">
-        <v>1789.542545024817</v>
+        <v>1701.572828547836</v>
       </c>
       <c r="R12" t="n">
-        <v>1801.754437569962</v>
+        <v>1801.754437569963</v>
       </c>
       <c r="S12" t="n">
         <v>1715.3211652896</v>
       </c>
       <c r="T12" t="n">
-        <v>1560.657138987658</v>
+        <v>1560.657138987659</v>
       </c>
       <c r="U12" t="n">
         <v>1363.382680207124</v>
       </c>
       <c r="V12" t="n">
-        <v>1149.671153200158</v>
+        <v>1190.980901047802</v>
       </c>
       <c r="W12" t="n">
-        <v>936.4379849364863</v>
+        <v>977.7477327841314</v>
       </c>
       <c r="X12" t="n">
-        <v>760.1120030753791</v>
+        <v>801.4217509230241</v>
       </c>
       <c r="Y12" t="n">
-        <v>600.7100434392091</v>
+        <v>642.0197912868541</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>123.1213482153726</v>
+        <v>336.4866229851235</v>
       </c>
       <c r="C13" t="n">
-        <v>123.1213482153726</v>
+        <v>336.4866229851235</v>
       </c>
       <c r="D13" t="n">
-        <v>123.1213482153726</v>
+        <v>176.9919783080336</v>
       </c>
       <c r="E13" t="n">
-        <v>123.1213482153726</v>
+        <v>176.9919783080336</v>
       </c>
       <c r="F13" t="n">
-        <v>123.1213482153726</v>
+        <v>176.9919783080336</v>
       </c>
       <c r="G13" t="n">
-        <v>123.1213482153726</v>
+        <v>176.9919783080336</v>
       </c>
       <c r="H13" t="n">
-        <v>123.1213482153726</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="I13" t="n">
         <v>36.03508875139925</v>
@@ -5205,46 +5205,46 @@
         <v>382.8814865638252</v>
       </c>
       <c r="L13" t="n">
-        <v>651.4766367315956</v>
+        <v>784.5537101246234</v>
       </c>
       <c r="M13" t="n">
-        <v>1090.222682332524</v>
+        <v>1223.299755725552</v>
       </c>
       <c r="N13" t="n">
-        <v>1516.989106293648</v>
+        <v>1318.031878239091</v>
       </c>
       <c r="O13" t="n">
-        <v>1596.262753261606</v>
+        <v>1397.305525207049</v>
       </c>
       <c r="P13" t="n">
-        <v>1656.374954878931</v>
+        <v>1718.315210297491</v>
       </c>
       <c r="Q13" t="n">
-        <v>1801.754437569962</v>
+        <v>1801.754437569963</v>
       </c>
       <c r="R13" t="n">
-        <v>1760.229876346689</v>
+        <v>1801.754437569963</v>
       </c>
       <c r="S13" t="n">
-        <v>1590.794278295998</v>
+        <v>1632.318839519271</v>
       </c>
       <c r="T13" t="n">
-        <v>1421.90139501757</v>
+        <v>1540.221299682323</v>
       </c>
       <c r="U13" t="n">
-        <v>1139.156318518528</v>
+        <v>1540.221299682323</v>
       </c>
       <c r="V13" t="n">
-        <v>865.2705734580502</v>
+        <v>1266.335554621845</v>
       </c>
       <c r="W13" t="n">
-        <v>586.2009089669245</v>
+        <v>987.2658901307198</v>
       </c>
       <c r="X13" t="n">
-        <v>347.8570468266079</v>
+        <v>748.9220279904032</v>
       </c>
       <c r="Y13" t="n">
-        <v>123.1213482153726</v>
+        <v>524.1863293791679</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1569.388422391211</v>
+        <v>1134.646291297036</v>
       </c>
       <c r="C14" t="n">
-        <v>1569.388422391211</v>
+        <v>1134.646291297036</v>
       </c>
       <c r="D14" t="n">
-        <v>1569.388422391211</v>
+        <v>1134.646291297036</v>
       </c>
       <c r="E14" t="n">
-        <v>1155.048206908108</v>
+        <v>1134.646291297036</v>
       </c>
       <c r="F14" t="n">
-        <v>734.0177948617957</v>
+        <v>713.6158792507235</v>
       </c>
       <c r="G14" t="n">
-        <v>327.4585749052889</v>
+        <v>307.0566592942168</v>
       </c>
       <c r="H14" t="n">
-        <v>38.76400576596473</v>
+        <v>38.7640057659647</v>
       </c>
       <c r="I14" t="n">
         <v>36.03508875139925</v>
       </c>
       <c r="J14" t="n">
-        <v>143.8778192802979</v>
+        <v>143.8778192802977</v>
       </c>
       <c r="K14" t="n">
-        <v>326.05521688877</v>
+        <v>326.0552168887698</v>
       </c>
       <c r="L14" t="n">
-        <v>567.0076014019887</v>
+        <v>567.0076014019886</v>
       </c>
       <c r="M14" t="n">
         <v>847.9396778919404</v>
@@ -5299,31 +5299,31 @@
         <v>1614.212614402881</v>
       </c>
       <c r="Q14" t="n">
-        <v>1754.652407274059</v>
+        <v>1754.652407274058</v>
       </c>
       <c r="R14" t="n">
-        <v>1801.754437569963</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="S14" t="n">
-        <v>1801.754437569963</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T14" t="n">
-        <v>1801.754437569963</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="U14" t="n">
-        <v>1801.754437569963</v>
+        <v>1544.867470961525</v>
       </c>
       <c r="V14" t="n">
-        <v>1801.754437569963</v>
+        <v>1544.867470961525</v>
       </c>
       <c r="W14" t="n">
-        <v>1801.754437569963</v>
+        <v>1544.867470961525</v>
       </c>
       <c r="X14" t="n">
-        <v>1569.388422391211</v>
+        <v>1544.867470961525</v>
       </c>
       <c r="Y14" t="n">
-        <v>1569.388422391211</v>
+        <v>1544.867470961525</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>622.2095746589395</v>
+        <v>460.4070108036225</v>
       </c>
       <c r="C15" t="n">
-        <v>488.2145034078852</v>
+        <v>326.4119395525682</v>
       </c>
       <c r="D15" t="n">
-        <v>371.3173456272776</v>
+        <v>209.5147817719606</v>
       </c>
       <c r="E15" t="n">
-        <v>250.8245296196056</v>
+        <v>89.02196576428858</v>
       </c>
       <c r="F15" t="n">
-        <v>141.8646498021101</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="G15" t="n">
         <v>36.03508875139925</v>
@@ -5354,55 +5354,55 @@
         <v>36.03508875139925</v>
       </c>
       <c r="I15" t="n">
-        <v>36.03508875139925</v>
+        <v>54.86182750109194</v>
       </c>
       <c r="J15" t="n">
-        <v>336.3126562147968</v>
+        <v>355.1393949644895</v>
       </c>
       <c r="K15" t="n">
-        <v>464.7194372055898</v>
+        <v>483.5461759552825</v>
       </c>
       <c r="L15" t="n">
-        <v>656.1388297965526</v>
+        <v>674.9655685462453</v>
       </c>
       <c r="M15" t="n">
-        <v>887.3557638905127</v>
+        <v>906.1825026402054</v>
       </c>
       <c r="N15" t="n">
-        <v>1130.527823413358</v>
+        <v>1149.35456216305</v>
       </c>
       <c r="O15" t="n">
-        <v>1449.01588185403</v>
+        <v>1362.810472052988</v>
       </c>
       <c r="P15" t="n">
-        <v>1612.503176317613</v>
+        <v>1526.297766516571</v>
       </c>
       <c r="Q15" t="n">
         <v>1701.572828547836</v>
       </c>
       <c r="R15" t="n">
-        <v>1801.754437569963</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="S15" t="n">
-        <v>1801.754437569963</v>
+        <v>1715.3211652896</v>
       </c>
       <c r="T15" t="n">
-        <v>1722.459702842975</v>
+        <v>1560.657138987658</v>
       </c>
       <c r="U15" t="n">
-        <v>1525.185244062441</v>
+        <v>1363.382680207124</v>
       </c>
       <c r="V15" t="n">
-        <v>1311.473717055474</v>
+        <v>1149.671153200158</v>
       </c>
       <c r="W15" t="n">
-        <v>1098.240548791803</v>
+        <v>936.4379849364863</v>
       </c>
       <c r="X15" t="n">
-        <v>921.9145669306961</v>
+        <v>760.1120030753791</v>
       </c>
       <c r="Y15" t="n">
-        <v>762.5126072945261</v>
+        <v>600.7100434392091</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>519.7022780173684</v>
+        <v>828.3059875753831</v>
       </c>
       <c r="C16" t="n">
-        <v>519.7022780173684</v>
+        <v>828.3059875753831</v>
       </c>
       <c r="D16" t="n">
-        <v>360.2076333402784</v>
+        <v>668.8113428982931</v>
       </c>
       <c r="E16" t="n">
-        <v>360.2076333402784</v>
+        <v>507.9005277666126</v>
       </c>
       <c r="F16" t="n">
-        <v>360.2076333402784</v>
+        <v>343.2694018772038</v>
       </c>
       <c r="G16" t="n">
-        <v>193.9302097711081</v>
+        <v>176.9919783080336</v>
       </c>
       <c r="H16" t="n">
-        <v>123.1213482153726</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="I16" t="n">
         <v>36.03508875139925</v>
       </c>
       <c r="J16" t="n">
-        <v>117.5375436081382</v>
+        <v>52.53617997680183</v>
       </c>
       <c r="K16" t="n">
-        <v>382.8814865638252</v>
+        <v>317.8801229324888</v>
       </c>
       <c r="L16" t="n">
-        <v>784.5537101246234</v>
+        <v>719.5523464932869</v>
       </c>
       <c r="M16" t="n">
-        <v>878.3334062112664</v>
+        <v>813.3320425799299</v>
       </c>
       <c r="N16" t="n">
-        <v>1201.914346874908</v>
+        <v>1240.098466541054</v>
       </c>
       <c r="O16" t="n">
-        <v>1596.262753261607</v>
+        <v>1634.446872927753</v>
       </c>
       <c r="P16" t="n">
-        <v>1656.374954878931</v>
+        <v>1782.648915084768</v>
       </c>
       <c r="Q16" t="n">
-        <v>1801.754437569963</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="R16" t="n">
         <v>1760.229876346689</v>
       </c>
       <c r="S16" t="n">
-        <v>1590.794278295998</v>
+        <v>1605.997095738222</v>
       </c>
       <c r="T16" t="n">
-        <v>1355.402764068014</v>
+        <v>1605.997095738222</v>
       </c>
       <c r="U16" t="n">
-        <v>1072.657687568972</v>
+        <v>1605.997095738222</v>
       </c>
       <c r="V16" t="n">
-        <v>798.771942508494</v>
+        <v>1332.111350677744</v>
       </c>
       <c r="W16" t="n">
-        <v>519.7022780173684</v>
+        <v>1053.041686186618</v>
       </c>
       <c r="X16" t="n">
-        <v>519.7022780173684</v>
+        <v>1053.041686186618</v>
       </c>
       <c r="Y16" t="n">
-        <v>519.7022780173684</v>
+        <v>828.3059875753831</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1391.533257905473</v>
+        <v>731.9225048122283</v>
       </c>
       <c r="C17" t="n">
-        <v>981.4086672187431</v>
+        <v>731.9225048122283</v>
       </c>
       <c r="D17" t="n">
-        <v>981.4086672187431</v>
+        <v>327.4585749052889</v>
       </c>
       <c r="E17" t="n">
-        <v>748.4889869516013</v>
+        <v>327.4585749052889</v>
       </c>
       <c r="F17" t="n">
         <v>327.4585749052889</v>
@@ -5521,13 +5521,13 @@
         <v>326.0552168887698</v>
       </c>
       <c r="L17" t="n">
-        <v>567.0076014019887</v>
+        <v>567.0076014019886</v>
       </c>
       <c r="M17" t="n">
-        <v>847.9396778919406</v>
+        <v>847.9396778919404</v>
       </c>
       <c r="N17" t="n">
-        <v>1135.286121478371</v>
+        <v>1135.28612147837</v>
       </c>
       <c r="O17" t="n">
         <v>1401.21843916599</v>
@@ -5542,25 +5542,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S17" t="n">
-        <v>1801.754437569962</v>
+        <v>1715.900911697253</v>
       </c>
       <c r="T17" t="n">
-        <v>1801.754437569962</v>
+        <v>1715.900911697253</v>
       </c>
       <c r="U17" t="n">
-        <v>1801.754437569962</v>
+        <v>1715.900911697253</v>
       </c>
       <c r="V17" t="n">
-        <v>1801.754437569962</v>
+        <v>1366.063357033733</v>
       </c>
       <c r="W17" t="n">
-        <v>1801.754437569962</v>
+        <v>1366.063357033733</v>
       </c>
       <c r="X17" t="n">
-        <v>1801.754437569962</v>
+        <v>1366.063357033733</v>
       </c>
       <c r="Y17" t="n">
-        <v>1801.754437569962</v>
+        <v>965.1266839818235</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>681.7483020962025</v>
+        <v>460.4070108036225</v>
       </c>
       <c r="C18" t="n">
-        <v>547.7532308451481</v>
+        <v>326.4119395525682</v>
       </c>
       <c r="D18" t="n">
-        <v>430.8560730645405</v>
+        <v>265.4877845765667</v>
       </c>
       <c r="E18" t="n">
-        <v>310.3632570568685</v>
+        <v>144.9949685688947</v>
       </c>
       <c r="F18" t="n">
-        <v>201.403377239373</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="G18" t="n">
-        <v>95.57381618866215</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="H18" t="n">
         <v>36.03508875139925</v>
@@ -5597,22 +5597,22 @@
         <v>355.1393949644895</v>
       </c>
       <c r="K18" t="n">
-        <v>483.5461759552825</v>
+        <v>569.7515857563242</v>
       </c>
       <c r="L18" t="n">
-        <v>674.9655685462453</v>
+        <v>761.1709783472871</v>
       </c>
       <c r="M18" t="n">
-        <v>906.1825026402054</v>
+        <v>992.3879124412472</v>
       </c>
       <c r="N18" t="n">
-        <v>1149.35456216305</v>
+        <v>1235.559971964092</v>
       </c>
       <c r="O18" t="n">
-        <v>1362.810472052988</v>
+        <v>1449.01588185403</v>
       </c>
       <c r="P18" t="n">
-        <v>1526.297766516571</v>
+        <v>1612.503176317613</v>
       </c>
       <c r="Q18" t="n">
         <v>1701.572828547836</v>
@@ -5621,25 +5621,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S18" t="n">
-        <v>1801.754437569962</v>
+        <v>1715.3211652896</v>
       </c>
       <c r="T18" t="n">
-        <v>1647.090411268021</v>
+        <v>1560.657138987658</v>
       </c>
       <c r="U18" t="n">
-        <v>1449.815952487486</v>
+        <v>1363.382680207124</v>
       </c>
       <c r="V18" t="n">
-        <v>1236.10442548052</v>
+        <v>1149.671153200158</v>
       </c>
       <c r="W18" t="n">
-        <v>1022.871257216849</v>
+        <v>936.4379849364863</v>
       </c>
       <c r="X18" t="n">
-        <v>846.5452753557415</v>
+        <v>760.1120030753791</v>
       </c>
       <c r="Y18" t="n">
-        <v>687.1433157195715</v>
+        <v>600.7100434392091</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>36.03508875139925</v>
+        <v>858.4424704570324</v>
       </c>
       <c r="C19" t="n">
-        <v>36.03508875139925</v>
+        <v>687.3490980187489</v>
       </c>
       <c r="D19" t="n">
-        <v>36.03508875139925</v>
+        <v>527.8544533416589</v>
       </c>
       <c r="E19" t="n">
-        <v>36.03508875139925</v>
+        <v>366.9436382099783</v>
       </c>
       <c r="F19" t="n">
-        <v>36.03508875139925</v>
+        <v>202.3125123205695</v>
       </c>
       <c r="G19" t="n">
         <v>36.03508875139925</v>
@@ -5679,46 +5679,46 @@
         <v>382.8814865638252</v>
       </c>
       <c r="L19" t="n">
-        <v>516.8531134643147</v>
+        <v>784.5537101246234</v>
       </c>
       <c r="M19" t="n">
-        <v>955.5991590652432</v>
+        <v>1223.299755725552</v>
       </c>
       <c r="N19" t="n">
-        <v>1382.365583026367</v>
+        <v>1318.031878239091</v>
       </c>
       <c r="O19" t="n">
-        <v>1461.639229994325</v>
+        <v>1397.305525207049</v>
       </c>
       <c r="P19" t="n">
-        <v>1782.648915084768</v>
+        <v>1718.315210297491</v>
       </c>
       <c r="Q19" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="R19" t="n">
-        <v>1760.229876346689</v>
+        <v>1770.027293750401</v>
       </c>
       <c r="S19" t="n">
-        <v>1590.794278295998</v>
+        <v>1600.59169569971</v>
       </c>
       <c r="T19" t="n">
-        <v>1355.402764068014</v>
+        <v>1600.59169569971</v>
       </c>
       <c r="U19" t="n">
-        <v>1072.657687568972</v>
+        <v>1600.59169569971</v>
       </c>
       <c r="V19" t="n">
-        <v>798.771942508494</v>
+        <v>1600.59169569971</v>
       </c>
       <c r="W19" t="n">
-        <v>519.7022780173684</v>
+        <v>1321.522031208584</v>
       </c>
       <c r="X19" t="n">
-        <v>281.3584158770518</v>
+        <v>1083.178169068268</v>
       </c>
       <c r="Y19" t="n">
-        <v>56.62271726581645</v>
+        <v>858.4424704570324</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>811.269615433175</v>
+        <v>1284.25922398211</v>
       </c>
       <c r="C20" t="n">
-        <v>811.269615433175</v>
+        <v>874.1346332953805</v>
       </c>
       <c r="D20" t="n">
-        <v>406.8056855262355</v>
+        <v>874.1346332953805</v>
       </c>
       <c r="E20" t="n">
-        <v>36.03508875139925</v>
+        <v>459.7944178122772</v>
       </c>
       <c r="F20" t="n">
-        <v>36.03508875139925</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="G20" t="n">
-        <v>36.03508875139925</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="H20" t="n">
-        <v>36.03508875139925</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="I20" t="n">
         <v>36.03508875139925</v>
       </c>
       <c r="J20" t="n">
-        <v>143.8778192802974</v>
+        <v>143.8778192802979</v>
       </c>
       <c r="K20" t="n">
-        <v>326.0552168887696</v>
+        <v>326.05521688877</v>
       </c>
       <c r="L20" t="n">
-        <v>567.0076014019885</v>
+        <v>567.0076014019887</v>
       </c>
       <c r="M20" t="n">
-        <v>847.9396778919402</v>
+        <v>847.9396778919404</v>
       </c>
       <c r="N20" t="n">
         <v>1135.28612147837</v>
@@ -5779,25 +5779,25 @@
         <v>1801.754437569963</v>
       </c>
       <c r="S20" t="n">
-        <v>1801.754437569963</v>
+        <v>1715.900911697253</v>
       </c>
       <c r="T20" t="n">
-        <v>1801.754437569963</v>
+        <v>1694.4804036466</v>
       </c>
       <c r="U20" t="n">
-        <v>1544.867470961526</v>
+        <v>1694.4804036466</v>
       </c>
       <c r="V20" t="n">
-        <v>1195.029916298006</v>
+        <v>1694.4804036466</v>
       </c>
       <c r="W20" t="n">
-        <v>811.269615433175</v>
+        <v>1694.4804036466</v>
       </c>
       <c r="X20" t="n">
-        <v>811.269615433175</v>
+        <v>1694.4804036466</v>
       </c>
       <c r="Y20" t="n">
-        <v>811.269615433175</v>
+        <v>1694.4804036466</v>
       </c>
     </row>
     <row r="21">
@@ -5831,49 +5831,49 @@
         <v>54.86182750109194</v>
       </c>
       <c r="J21" t="n">
-        <v>355.1393949644895</v>
+        <v>111.4709909898562</v>
       </c>
       <c r="K21" t="n">
-        <v>483.5461759552825</v>
+        <v>239.8777719806492</v>
       </c>
       <c r="L21" t="n">
-        <v>674.9655685462453</v>
+        <v>431.297164571612</v>
       </c>
       <c r="M21" t="n">
-        <v>992.3879124412477</v>
+        <v>662.5140986655721</v>
       </c>
       <c r="N21" t="n">
-        <v>1235.559971964092</v>
+        <v>905.6861581884168</v>
       </c>
       <c r="O21" t="n">
-        <v>1449.01588185403</v>
+        <v>1119.142068078354</v>
       </c>
       <c r="P21" t="n">
-        <v>1612.503176317613</v>
+        <v>1282.629362541937</v>
       </c>
       <c r="Q21" t="n">
-        <v>1701.572828547836</v>
+        <v>1728.563585840503</v>
       </c>
       <c r="R21" t="n">
         <v>1801.754437569963</v>
       </c>
       <c r="S21" t="n">
-        <v>1739.387997801645</v>
+        <v>1715.3211652896</v>
       </c>
       <c r="T21" t="n">
-        <v>1584.723971499704</v>
+        <v>1560.657138987659</v>
       </c>
       <c r="U21" t="n">
-        <v>1584.723971499704</v>
+        <v>1425.322011863534</v>
       </c>
       <c r="V21" t="n">
-        <v>1371.012444492737</v>
+        <v>1211.610484856567</v>
       </c>
       <c r="W21" t="n">
-        <v>1157.779276229066</v>
+        <v>998.3773165928962</v>
       </c>
       <c r="X21" t="n">
-        <v>981.4532943679591</v>
+        <v>822.0513347317891</v>
       </c>
       <c r="Y21" t="n">
         <v>822.0513347317891</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>594.9867872305859</v>
+        <v>538.0370106482618</v>
       </c>
       <c r="C22" t="n">
-        <v>594.9867872305859</v>
+        <v>366.9436382099783</v>
       </c>
       <c r="D22" t="n">
-        <v>594.9867872305859</v>
+        <v>366.9436382099783</v>
       </c>
       <c r="E22" t="n">
-        <v>594.9867872305859</v>
+        <v>366.9436382099783</v>
       </c>
       <c r="F22" t="n">
-        <v>430.3556613411772</v>
+        <v>202.3125123205695</v>
       </c>
       <c r="G22" t="n">
-        <v>264.0782377720069</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="H22" t="n">
-        <v>123.1213482153726</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="I22" t="n">
         <v>36.03508875139925</v>
@@ -5913,19 +5913,19 @@
         <v>117.5375436081382</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6012929781111</v>
+        <v>382.8814865638252</v>
       </c>
       <c r="L22" t="n">
-        <v>264.2944053038862</v>
+        <v>722.6134547060633</v>
       </c>
       <c r="M22" t="n">
-        <v>703.0404509048146</v>
+        <v>1161.359500306992</v>
       </c>
       <c r="N22" t="n">
-        <v>1129.806874865939</v>
+        <v>1256.091622820531</v>
       </c>
       <c r="O22" t="n">
-        <v>1524.155281252637</v>
+        <v>1335.365269788489</v>
       </c>
       <c r="P22" t="n">
         <v>1656.374954878931</v>
@@ -5940,22 +5940,22 @@
         <v>1801.754437569963</v>
       </c>
       <c r="T22" t="n">
-        <v>1614.697169541658</v>
+        <v>1566.362923341979</v>
       </c>
       <c r="U22" t="n">
-        <v>1331.952093042616</v>
+        <v>1329.336282340182</v>
       </c>
       <c r="V22" t="n">
-        <v>1058.066347982138</v>
+        <v>1055.450537279704</v>
       </c>
       <c r="W22" t="n">
-        <v>1058.066347982138</v>
+        <v>776.3808727885785</v>
       </c>
       <c r="X22" t="n">
-        <v>819.7224858418213</v>
+        <v>538.0370106482618</v>
       </c>
       <c r="Y22" t="n">
-        <v>594.9867872305859</v>
+        <v>538.0370106482618</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>36.03508875139925</v>
+        <v>794.3865184669587</v>
       </c>
       <c r="C23" t="n">
-        <v>36.03508875139925</v>
+        <v>794.3865184669587</v>
       </c>
       <c r="D23" t="n">
-        <v>36.03508875139925</v>
+        <v>794.3865184669587</v>
       </c>
       <c r="E23" t="n">
-        <v>36.03508875139925</v>
+        <v>794.3865184669587</v>
       </c>
       <c r="F23" t="n">
-        <v>36.03508875139925</v>
+        <v>373.3561064206463</v>
       </c>
       <c r="G23" t="n">
-        <v>36.03508875139925</v>
+        <v>324.7296578907234</v>
       </c>
       <c r="H23" t="n">
         <v>36.03508875139925</v>
@@ -5989,16 +5989,16 @@
         <v>36.03508875139925</v>
       </c>
       <c r="J23" t="n">
-        <v>143.8778192802977</v>
+        <v>143.8778192802974</v>
       </c>
       <c r="K23" t="n">
-        <v>326.0552168887697</v>
+        <v>326.0552168887696</v>
       </c>
       <c r="L23" t="n">
-        <v>567.0076014019885</v>
+        <v>567.0076014019883</v>
       </c>
       <c r="M23" t="n">
-        <v>847.9396778919404</v>
+        <v>847.9396778919399</v>
       </c>
       <c r="N23" t="n">
         <v>1135.28612147837</v>
@@ -6010,31 +6010,31 @@
         <v>1614.212614402881</v>
       </c>
       <c r="Q23" t="n">
-        <v>1754.652407274059</v>
+        <v>1754.652407274058</v>
       </c>
       <c r="R23" t="n">
-        <v>1801.754437569963</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="S23" t="n">
-        <v>1715.900911697253</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T23" t="n">
-        <v>1503.189505963631</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="U23" t="n">
-        <v>1246.302539355194</v>
+        <v>1544.867470961525</v>
       </c>
       <c r="V23" t="n">
-        <v>896.4649846916743</v>
+        <v>1195.029916298006</v>
       </c>
       <c r="W23" t="n">
-        <v>512.7046838268429</v>
+        <v>1195.029916298006</v>
       </c>
       <c r="X23" t="n">
-        <v>112.0612859957955</v>
+        <v>794.3865184669587</v>
       </c>
       <c r="Y23" t="n">
-        <v>36.03508875139925</v>
+        <v>794.3865184669587</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>516.3800136082286</v>
+        <v>622.2095746589395</v>
       </c>
       <c r="C24" t="n">
-        <v>382.3849423571743</v>
+        <v>488.2145034078852</v>
       </c>
       <c r="D24" t="n">
-        <v>265.4877845765667</v>
+        <v>371.3173456272776</v>
       </c>
       <c r="E24" t="n">
-        <v>144.9949685688947</v>
+        <v>250.8245296196056</v>
       </c>
       <c r="F24" t="n">
-        <v>36.03508875139925</v>
+        <v>141.8646498021101</v>
       </c>
       <c r="G24" t="n">
         <v>36.03508875139925</v>
@@ -6065,55 +6065,55 @@
         <v>36.03508875139925</v>
       </c>
       <c r="I24" t="n">
-        <v>36.03508875139925</v>
+        <v>54.86182750109194</v>
       </c>
       <c r="J24" t="n">
-        <v>92.64425224016351</v>
+        <v>355.1393949644895</v>
       </c>
       <c r="K24" t="n">
-        <v>221.0510332309565</v>
+        <v>483.5461759552825</v>
       </c>
       <c r="L24" t="n">
-        <v>412.4704258219193</v>
+        <v>674.9655685462453</v>
       </c>
       <c r="M24" t="n">
-        <v>643.6873599158794</v>
+        <v>906.1825026402054</v>
       </c>
       <c r="N24" t="n">
-        <v>886.8594194387241</v>
+        <v>1149.35456216305</v>
       </c>
       <c r="O24" t="n">
-        <v>1100.315329328662</v>
+        <v>1362.810472052988</v>
       </c>
       <c r="P24" t="n">
-        <v>1343.608321726251</v>
+        <v>1526.29776651657</v>
       </c>
       <c r="Q24" t="n">
-        <v>1789.542545024817</v>
+        <v>1701.572828547836</v>
       </c>
       <c r="R24" t="n">
-        <v>1801.754437569963</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="S24" t="n">
         <v>1715.3211652896</v>
       </c>
       <c r="T24" t="n">
-        <v>1616.630141792265</v>
+        <v>1560.657138987658</v>
       </c>
       <c r="U24" t="n">
-        <v>1419.35568301173</v>
+        <v>1363.382680207124</v>
       </c>
       <c r="V24" t="n">
-        <v>1205.644156004764</v>
+        <v>1152.071757419305</v>
       </c>
       <c r="W24" t="n">
-        <v>992.4109877410924</v>
+        <v>938.8385891556334</v>
       </c>
       <c r="X24" t="n">
-        <v>816.0850058799853</v>
+        <v>762.5126072945261</v>
       </c>
       <c r="Y24" t="n">
-        <v>656.6830462438153</v>
+        <v>762.5126072945261</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>36.03508875139925</v>
+        <v>79.88317014573661</v>
       </c>
       <c r="C25" t="n">
-        <v>36.03508875139925</v>
+        <v>79.88317014573661</v>
       </c>
       <c r="D25" t="n">
-        <v>36.03508875139925</v>
+        <v>79.88317014573661</v>
       </c>
       <c r="E25" t="n">
-        <v>36.03508875139925</v>
+        <v>79.88317014573661</v>
       </c>
       <c r="F25" t="n">
-        <v>36.03508875139925</v>
+        <v>79.88317014573661</v>
       </c>
       <c r="G25" t="n">
-        <v>36.03508875139925</v>
+        <v>79.88317014573661</v>
       </c>
       <c r="H25" t="n">
         <v>36.03508875139925</v>
@@ -6153,46 +6153,46 @@
         <v>111.5999293467747</v>
       </c>
       <c r="L25" t="n">
-        <v>513.2721529075728</v>
+        <v>462.6758375186921</v>
       </c>
       <c r="M25" t="n">
-        <v>901.421883119621</v>
+        <v>901.4218831196206</v>
       </c>
       <c r="N25" t="n">
         <v>1328.188307080745</v>
       </c>
       <c r="O25" t="n">
-        <v>1722.536713467444</v>
+        <v>1722.536713467443</v>
       </c>
       <c r="P25" t="n">
         <v>1782.648915084768</v>
       </c>
       <c r="Q25" t="n">
-        <v>1801.754437569963</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="R25" t="n">
-        <v>1801.754437569963</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="S25" t="n">
-        <v>1757.906356175625</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T25" t="n">
-        <v>1522.514841947641</v>
+        <v>1566.362923341979</v>
       </c>
       <c r="U25" t="n">
-        <v>1239.769765448599</v>
+        <v>1283.617846842937</v>
       </c>
       <c r="V25" t="n">
-        <v>965.8840203881211</v>
+        <v>1009.732101782459</v>
       </c>
       <c r="W25" t="n">
-        <v>686.8143558969955</v>
+        <v>730.6624372913329</v>
       </c>
       <c r="X25" t="n">
-        <v>448.4704937566789</v>
+        <v>492.3185751510163</v>
       </c>
       <c r="Y25" t="n">
-        <v>223.7347951454437</v>
+        <v>267.582876539781</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>850.6236093450686</v>
+        <v>769.5916504352797</v>
       </c>
       <c r="C26" t="n">
-        <v>440.4990186583387</v>
+        <v>769.5916504352797</v>
       </c>
       <c r="D26" t="n">
-        <v>36.03508875139925</v>
+        <v>769.5916504352797</v>
       </c>
       <c r="E26" t="n">
-        <v>36.03508875139925</v>
+        <v>769.5916504352797</v>
       </c>
       <c r="F26" t="n">
-        <v>36.03508875139925</v>
+        <v>348.5612383889672</v>
       </c>
       <c r="G26" t="n">
-        <v>36.03508875139925</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="H26" t="n">
-        <v>36.03508875139925</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="I26" t="n">
         <v>36.03508875139925</v>
@@ -6250,28 +6250,28 @@
         <v>1754.652407274058</v>
       </c>
       <c r="R26" t="n">
-        <v>1801.754437569963</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="S26" t="n">
-        <v>1730.443161351617</v>
+        <v>1715.900911697253</v>
       </c>
       <c r="T26" t="n">
-        <v>1517.731755617995</v>
+        <v>1503.18950596363</v>
       </c>
       <c r="U26" t="n">
-        <v>1260.844789009558</v>
+        <v>1503.18950596363</v>
       </c>
       <c r="V26" t="n">
-        <v>1260.844789009558</v>
+        <v>1153.351951300111</v>
       </c>
       <c r="W26" t="n">
-        <v>1260.844789009558</v>
+        <v>769.5916504352797</v>
       </c>
       <c r="X26" t="n">
-        <v>1260.844789009558</v>
+        <v>769.5916504352797</v>
       </c>
       <c r="Y26" t="n">
-        <v>1260.844789009558</v>
+        <v>769.5916504352797</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>681.7483020962025</v>
+        <v>657.6814695841571</v>
       </c>
       <c r="C27" t="n">
-        <v>547.7532308451481</v>
+        <v>523.6863983331027</v>
       </c>
       <c r="D27" t="n">
-        <v>430.8560730645405</v>
+        <v>406.7892405524951</v>
       </c>
       <c r="E27" t="n">
-        <v>310.3632570568685</v>
+        <v>286.2964245448231</v>
       </c>
       <c r="F27" t="n">
-        <v>201.4033772393731</v>
+        <v>177.3365447273277</v>
       </c>
       <c r="G27" t="n">
-        <v>95.57381618866216</v>
+        <v>71.50698367661683</v>
       </c>
       <c r="H27" t="n">
         <v>36.03508875139925</v>
@@ -6305,52 +6305,52 @@
         <v>54.86182750109194</v>
       </c>
       <c r="J27" t="n">
-        <v>111.4709909898562</v>
+        <v>355.1393949644895</v>
       </c>
       <c r="K27" t="n">
-        <v>239.8777719806492</v>
+        <v>569.7515857563246</v>
       </c>
       <c r="L27" t="n">
-        <v>431.297164571612</v>
+        <v>761.1709783472875</v>
       </c>
       <c r="M27" t="n">
-        <v>662.5140986655721</v>
+        <v>992.3879124412475</v>
       </c>
       <c r="N27" t="n">
-        <v>905.6861581884168</v>
+        <v>1235.559971964092</v>
       </c>
       <c r="O27" t="n">
-        <v>1119.142068078354</v>
+        <v>1449.01588185403</v>
       </c>
       <c r="P27" t="n">
-        <v>1282.629362541937</v>
+        <v>1612.503176317613</v>
       </c>
       <c r="Q27" t="n">
         <v>1701.572828547836</v>
       </c>
       <c r="R27" t="n">
-        <v>1801.754437569963</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="S27" t="n">
-        <v>1801.754437569963</v>
+        <v>1715.3211652896</v>
       </c>
       <c r="T27" t="n">
-        <v>1781.998430280238</v>
+        <v>1560.657138987658</v>
       </c>
       <c r="U27" t="n">
-        <v>1584.723971499704</v>
+        <v>1560.657138987658</v>
       </c>
       <c r="V27" t="n">
-        <v>1371.012444492737</v>
+        <v>1346.945611980692</v>
       </c>
       <c r="W27" t="n">
-        <v>1157.779276229066</v>
+        <v>1133.712443717021</v>
       </c>
       <c r="X27" t="n">
-        <v>981.4532943679591</v>
+        <v>957.3864618559137</v>
       </c>
       <c r="Y27" t="n">
-        <v>822.0513347317891</v>
+        <v>797.9845022197437</v>
       </c>
     </row>
     <row r="28">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>315.2746843737206</v>
+        <v>200.666214640808</v>
       </c>
       <c r="C28" t="n">
-        <v>144.1813119354371</v>
+        <v>200.666214640808</v>
       </c>
       <c r="D28" t="n">
-        <v>144.1813119354371</v>
+        <v>200.666214640808</v>
       </c>
       <c r="E28" t="n">
-        <v>144.1813119354371</v>
+        <v>200.666214640808</v>
       </c>
       <c r="F28" t="n">
         <v>36.03508875139925</v>
@@ -6390,46 +6390,46 @@
         <v>111.5999293467747</v>
       </c>
       <c r="L28" t="n">
-        <v>199.2930416725498</v>
+        <v>462.6758375186921</v>
       </c>
       <c r="M28" t="n">
-        <v>638.0390872734782</v>
+        <v>901.4218831196206</v>
       </c>
       <c r="N28" t="n">
-        <v>1064.805511234602</v>
+        <v>1328.188307080745</v>
       </c>
       <c r="O28" t="n">
-        <v>1459.153917621301</v>
+        <v>1722.536713467443</v>
       </c>
       <c r="P28" t="n">
-        <v>1780.163602711743</v>
+        <v>1782.648915084768</v>
       </c>
       <c r="Q28" t="n">
-        <v>1801.754437569963</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="R28" t="n">
-        <v>1801.754437569963</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="S28" t="n">
-        <v>1801.754437569963</v>
+        <v>1632.318839519271</v>
       </c>
       <c r="T28" t="n">
-        <v>1801.754437569963</v>
+        <v>1632.318839519271</v>
       </c>
       <c r="U28" t="n">
-        <v>1519.00936107092</v>
+        <v>1404.400891338008</v>
       </c>
       <c r="V28" t="n">
-        <v>1245.123616010442</v>
+        <v>1130.51514627753</v>
       </c>
       <c r="W28" t="n">
-        <v>966.0539515193168</v>
+        <v>851.4454817864043</v>
       </c>
       <c r="X28" t="n">
-        <v>727.7100893790002</v>
+        <v>613.1016196460877</v>
       </c>
       <c r="Y28" t="n">
-        <v>502.9743907677649</v>
+        <v>388.3659210348524</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>36.03508875139925</v>
+        <v>896.4649846916741</v>
       </c>
       <c r="C29" t="n">
-        <v>36.03508875139925</v>
+        <v>896.4649846916741</v>
       </c>
       <c r="D29" t="n">
-        <v>36.03508875139925</v>
+        <v>896.4649846916741</v>
       </c>
       <c r="E29" t="n">
-        <v>36.03508875139925</v>
+        <v>482.1247692085708</v>
       </c>
       <c r="F29" t="n">
-        <v>36.03508875139925</v>
+        <v>482.1247692085708</v>
       </c>
       <c r="G29" t="n">
-        <v>36.03508875139925</v>
+        <v>327.4585749052889</v>
       </c>
       <c r="H29" t="n">
-        <v>36.03508875139925</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="I29" t="n">
         <v>36.03508875139925</v>
       </c>
       <c r="J29" t="n">
-        <v>143.8778192802974</v>
+        <v>143.8778192802977</v>
       </c>
       <c r="K29" t="n">
-        <v>326.0552168887696</v>
+        <v>326.0552168887697</v>
       </c>
       <c r="L29" t="n">
-        <v>567.0076014019883</v>
+        <v>567.0076014019885</v>
       </c>
       <c r="M29" t="n">
-        <v>847.9396778919399</v>
+        <v>847.9396778919402</v>
       </c>
       <c r="N29" t="n">
         <v>1135.28612147837</v>
@@ -6490,25 +6490,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S29" t="n">
-        <v>1801.754437569962</v>
+        <v>1715.900911697253</v>
       </c>
       <c r="T29" t="n">
-        <v>1801.754437569962</v>
+        <v>1503.18950596363</v>
       </c>
       <c r="U29" t="n">
-        <v>1571.213015162707</v>
+        <v>1246.302539355193</v>
       </c>
       <c r="V29" t="n">
-        <v>1221.375460499188</v>
+        <v>896.4649846916741</v>
       </c>
       <c r="W29" t="n">
-        <v>837.6151596343566</v>
+        <v>896.4649846916741</v>
       </c>
       <c r="X29" t="n">
-        <v>436.9717618033092</v>
+        <v>896.4649846916741</v>
       </c>
       <c r="Y29" t="n">
-        <v>36.03508875139925</v>
+        <v>896.4649846916741</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>516.3800136082286</v>
+        <v>615.0710371055642</v>
       </c>
       <c r="C30" t="n">
-        <v>382.3849423571743</v>
+        <v>481.0759658545099</v>
       </c>
       <c r="D30" t="n">
-        <v>265.4877845765667</v>
+        <v>364.1788080739023</v>
       </c>
       <c r="E30" t="n">
-        <v>144.9949685688947</v>
+        <v>243.6859920662303</v>
       </c>
       <c r="F30" t="n">
-        <v>36.03508875139925</v>
+        <v>134.7261122487349</v>
       </c>
       <c r="G30" t="n">
-        <v>36.03508875139925</v>
+        <v>95.57381618866216</v>
       </c>
       <c r="H30" t="n">
         <v>36.03508875139925</v>
       </c>
       <c r="I30" t="n">
-        <v>36.03508875139925</v>
+        <v>54.86182750109194</v>
       </c>
       <c r="J30" t="n">
-        <v>92.64425224016351</v>
+        <v>355.1393949644895</v>
       </c>
       <c r="K30" t="n">
-        <v>221.0510332309565</v>
+        <v>483.5461759552825</v>
       </c>
       <c r="L30" t="n">
-        <v>412.4704258219193</v>
+        <v>674.9655685462453</v>
       </c>
       <c r="M30" t="n">
-        <v>709.9409836062644</v>
+        <v>906.1825026402054</v>
       </c>
       <c r="N30" t="n">
-        <v>953.1130431291091</v>
+        <v>1149.35456216305</v>
       </c>
       <c r="O30" t="n">
-        <v>1166.568953019047</v>
+        <v>1362.810472052988</v>
       </c>
       <c r="P30" t="n">
-        <v>1612.503176317613</v>
+        <v>1526.29776651657</v>
       </c>
       <c r="Q30" t="n">
         <v>1701.572828547836</v>
@@ -6569,25 +6569,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S30" t="n">
-        <v>1771.294168094206</v>
+        <v>1715.3211652896</v>
       </c>
       <c r="T30" t="n">
-        <v>1616.630141792265</v>
+        <v>1715.3211652896</v>
       </c>
       <c r="U30" t="n">
-        <v>1419.35568301173</v>
+        <v>1518.046706509065</v>
       </c>
       <c r="V30" t="n">
-        <v>1205.644156004764</v>
+        <v>1304.335179502099</v>
       </c>
       <c r="W30" t="n">
-        <v>992.4109877410924</v>
+        <v>1091.102011238428</v>
       </c>
       <c r="X30" t="n">
-        <v>816.0850058799853</v>
+        <v>914.7760293773208</v>
       </c>
       <c r="Y30" t="n">
-        <v>656.6830462438153</v>
+        <v>755.3740697411508</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>830.3809447099674</v>
+        <v>532.900529435943</v>
       </c>
       <c r="C31" t="n">
-        <v>659.2875722716839</v>
+        <v>361.8071569976595</v>
       </c>
       <c r="D31" t="n">
-        <v>499.7929275945939</v>
+        <v>202.3125123205695</v>
       </c>
       <c r="E31" t="n">
-        <v>338.8821124629134</v>
+        <v>202.3125123205695</v>
       </c>
       <c r="F31" t="n">
-        <v>174.2509865735046</v>
+        <v>202.3125123205695</v>
       </c>
       <c r="G31" t="n">
         <v>36.03508875139925</v>
@@ -6627,19 +6627,19 @@
         <v>111.5999293467747</v>
       </c>
       <c r="L31" t="n">
-        <v>199.2930416725498</v>
+        <v>513.2721529075728</v>
       </c>
       <c r="M31" t="n">
-        <v>638.0390872734782</v>
+        <v>901.4218831196206</v>
       </c>
       <c r="N31" t="n">
-        <v>1064.805511234602</v>
+        <v>1328.188307080745</v>
       </c>
       <c r="O31" t="n">
-        <v>1459.153917621301</v>
+        <v>1722.536713467443</v>
       </c>
       <c r="P31" t="n">
-        <v>1656.374954878931</v>
+        <v>1782.648915084768</v>
       </c>
       <c r="Q31" t="n">
         <v>1801.754437569962</v>
@@ -6648,25 +6648,25 @@
         <v>1760.229876346689</v>
       </c>
       <c r="S31" t="n">
-        <v>1760.229876346689</v>
+        <v>1590.794278295998</v>
       </c>
       <c r="T31" t="n">
-        <v>1760.229876346689</v>
+        <v>1590.794278295998</v>
       </c>
       <c r="U31" t="n">
-        <v>1760.229876346689</v>
+        <v>1457.565541642017</v>
       </c>
       <c r="V31" t="n">
-        <v>1760.229876346689</v>
+        <v>1183.679796581539</v>
       </c>
       <c r="W31" t="n">
-        <v>1481.160211855564</v>
+        <v>1183.679796581539</v>
       </c>
       <c r="X31" t="n">
-        <v>1242.816349715247</v>
+        <v>945.3359344412227</v>
       </c>
       <c r="Y31" t="n">
-        <v>1018.080651104012</v>
+        <v>720.6002358299874</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1400.817764518053</v>
+        <v>1391.533257905473</v>
       </c>
       <c r="C32" t="n">
-        <v>990.6931738313227</v>
+        <v>981.4086672187431</v>
       </c>
       <c r="D32" t="n">
-        <v>990.6931738313227</v>
+        <v>576.9447373118036</v>
       </c>
       <c r="E32" t="n">
-        <v>990.6931738313227</v>
+        <v>576.9447373118036</v>
       </c>
       <c r="F32" t="n">
-        <v>569.6627617850103</v>
+        <v>576.9447373118036</v>
       </c>
       <c r="G32" t="n">
-        <v>324.7296578907234</v>
+        <v>170.3855173552968</v>
       </c>
       <c r="H32" t="n">
-        <v>36.03508875139925</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="I32" t="n">
         <v>36.03508875139925</v>
       </c>
       <c r="J32" t="n">
-        <v>143.8778192802977</v>
+        <v>143.8778192802975</v>
       </c>
       <c r="K32" t="n">
-        <v>326.0552168887697</v>
+        <v>326.0552168887695</v>
       </c>
       <c r="L32" t="n">
-        <v>567.0076014019885</v>
+        <v>567.0076014019884</v>
       </c>
       <c r="M32" t="n">
-        <v>847.9396778919403</v>
+        <v>847.9396778919402</v>
       </c>
       <c r="N32" t="n">
         <v>1135.28612147837</v>
@@ -6745,7 +6745,7 @@
         <v>1801.754437569962</v>
       </c>
       <c r="Y32" t="n">
-        <v>1400.817764518053</v>
+        <v>1801.754437569962</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>681.7483020962025</v>
+        <v>622.2095746589395</v>
       </c>
       <c r="C33" t="n">
-        <v>547.7532308451481</v>
+        <v>488.2145034078852</v>
       </c>
       <c r="D33" t="n">
-        <v>430.8560730645405</v>
+        <v>371.3173456272776</v>
       </c>
       <c r="E33" t="n">
-        <v>310.3632570568685</v>
+        <v>250.8245296196056</v>
       </c>
       <c r="F33" t="n">
-        <v>201.4033772393731</v>
+        <v>141.8646498021101</v>
       </c>
       <c r="G33" t="n">
-        <v>95.57381618866216</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="H33" t="n">
         <v>36.03508875139925</v>
@@ -6779,52 +6779,52 @@
         <v>54.86182750109194</v>
       </c>
       <c r="J33" t="n">
-        <v>111.8350682621862</v>
+        <v>158.8978759305485</v>
       </c>
       <c r="K33" t="n">
-        <v>240.2418492529791</v>
+        <v>287.3046569213415</v>
       </c>
       <c r="L33" t="n">
-        <v>431.661241843942</v>
+        <v>478.7240495123043</v>
       </c>
       <c r="M33" t="n">
-        <v>877.5954651425077</v>
+        <v>709.9409836062644</v>
       </c>
       <c r="N33" t="n">
-        <v>1323.529688441073</v>
+        <v>953.1130431291091</v>
       </c>
       <c r="O33" t="n">
-        <v>1536.985598331011</v>
+        <v>1166.568953019047</v>
       </c>
       <c r="P33" t="n">
-        <v>1700.472892794594</v>
+        <v>1612.503176317613</v>
       </c>
       <c r="Q33" t="n">
-        <v>1789.542545024817</v>
+        <v>1701.572828547836</v>
       </c>
       <c r="R33" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="S33" t="n">
-        <v>1801.754437569962</v>
+        <v>1736.82069650933</v>
       </c>
       <c r="T33" t="n">
-        <v>1781.998430280238</v>
+        <v>1582.156670207389</v>
       </c>
       <c r="U33" t="n">
-        <v>1584.723971499704</v>
+        <v>1384.882211426854</v>
       </c>
       <c r="V33" t="n">
-        <v>1371.012444492737</v>
+        <v>1171.170684419888</v>
       </c>
       <c r="W33" t="n">
-        <v>1157.779276229066</v>
+        <v>957.9375161562166</v>
       </c>
       <c r="X33" t="n">
-        <v>981.4532943679591</v>
+        <v>781.6115342951094</v>
       </c>
       <c r="Y33" t="n">
-        <v>822.0513347317891</v>
+        <v>622.2095746589395</v>
       </c>
     </row>
     <row r="34">
@@ -6834,46 +6834,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1086.48561947764</v>
+        <v>527.8544533416589</v>
       </c>
       <c r="C34" t="n">
-        <v>915.3922470393566</v>
+        <v>527.8544533416589</v>
       </c>
       <c r="D34" t="n">
-        <v>755.8976023622665</v>
+        <v>527.8544533416589</v>
       </c>
       <c r="E34" t="n">
-        <v>594.9867872305859</v>
+        <v>366.9436382099783</v>
       </c>
       <c r="F34" t="n">
-        <v>430.3556613411772</v>
+        <v>202.3125123205695</v>
       </c>
       <c r="G34" t="n">
-        <v>264.0782377720069</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="H34" t="n">
-        <v>123.1213482153726</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="I34" t="n">
         <v>36.03508875139925</v>
       </c>
       <c r="J34" t="n">
-        <v>117.5375436081382</v>
+        <v>52.53617997680181</v>
       </c>
       <c r="K34" t="n">
-        <v>176.6012929781111</v>
+        <v>111.5999293467747</v>
       </c>
       <c r="L34" t="n">
-        <v>264.2944053038862</v>
+        <v>462.6758375186921</v>
       </c>
       <c r="M34" t="n">
-        <v>703.0404509048146</v>
+        <v>901.4218831196206</v>
       </c>
       <c r="N34" t="n">
-        <v>1129.806874865939</v>
+        <v>1328.188307080745</v>
       </c>
       <c r="O34" t="n">
-        <v>1524.155281252637</v>
+        <v>1722.536713467443</v>
       </c>
       <c r="P34" t="n">
         <v>1782.648915084768</v>
@@ -6885,25 +6885,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S34" t="n">
-        <v>1801.754437569962</v>
+        <v>1632.318839519271</v>
       </c>
       <c r="T34" t="n">
-        <v>1781.666100981962</v>
+        <v>1601.898801532621</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.92102448292</v>
+        <v>1319.153725033579</v>
       </c>
       <c r="V34" t="n">
-        <v>1498.92102448292</v>
+        <v>1045.267979973101</v>
       </c>
       <c r="W34" t="n">
-        <v>1498.92102448292</v>
+        <v>766.1983154819754</v>
       </c>
       <c r="X34" t="n">
-        <v>1498.92102448292</v>
+        <v>527.8544533416589</v>
       </c>
       <c r="Y34" t="n">
-        <v>1274.185325871684</v>
+        <v>527.8544533416589</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1715.900911697252</v>
+        <v>1274.382938405947</v>
       </c>
       <c r="C35" t="n">
-        <v>1305.776321010522</v>
+        <v>864.2583477192167</v>
       </c>
       <c r="D35" t="n">
-        <v>1305.776321010522</v>
+        <v>459.7944178122772</v>
       </c>
       <c r="E35" t="n">
-        <v>1152.319289893543</v>
+        <v>459.7944178122772</v>
       </c>
       <c r="F35" t="n">
-        <v>731.2888778472302</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="G35" t="n">
-        <v>324.7296578907234</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="H35" t="n">
-        <v>36.03508875139924</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="I35" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="J35" t="n">
-        <v>143.8778192802977</v>
+        <v>143.8778192802974</v>
       </c>
       <c r="K35" t="n">
-        <v>326.0552168887697</v>
+        <v>326.0552168887696</v>
       </c>
       <c r="L35" t="n">
         <v>567.0076014019883</v>
@@ -6964,25 +6964,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S35" t="n">
-        <v>1715.900911697252</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T35" t="n">
-        <v>1715.900911697252</v>
+        <v>1684.604118070436</v>
       </c>
       <c r="U35" t="n">
-        <v>1715.900911697252</v>
+        <v>1684.604118070436</v>
       </c>
       <c r="V35" t="n">
-        <v>1715.900911697252</v>
+        <v>1684.604118070436</v>
       </c>
       <c r="W35" t="n">
-        <v>1715.900911697252</v>
+        <v>1684.604118070436</v>
       </c>
       <c r="X35" t="n">
-        <v>1715.900911697252</v>
+        <v>1684.604118070436</v>
       </c>
       <c r="Y35" t="n">
-        <v>1715.900911697252</v>
+        <v>1684.604118070436</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>546.8402830839844</v>
+        <v>460.4070108036225</v>
       </c>
       <c r="C36" t="n">
-        <v>412.8452118329301</v>
+        <v>326.4119395525682</v>
       </c>
       <c r="D36" t="n">
-        <v>295.9480540523226</v>
+        <v>209.5147817719606</v>
       </c>
       <c r="E36" t="n">
-        <v>175.4552380446505</v>
+        <v>209.5147817719606</v>
       </c>
       <c r="F36" t="n">
-        <v>66.49535822715512</v>
+        <v>100.5549019544652</v>
       </c>
       <c r="G36" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="H36" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="I36" t="n">
-        <v>54.86182750109193</v>
+        <v>54.86182750109194</v>
       </c>
       <c r="J36" t="n">
-        <v>172.4499501741698</v>
+        <v>355.1393949644895</v>
       </c>
       <c r="K36" t="n">
-        <v>300.8567311649628</v>
+        <v>483.5461759552825</v>
       </c>
       <c r="L36" t="n">
-        <v>492.2761237559256</v>
+        <v>674.9655685462453</v>
       </c>
       <c r="M36" t="n">
-        <v>723.4930578498856</v>
+        <v>906.1825026402054</v>
       </c>
       <c r="N36" t="n">
-        <v>966.6651173727304</v>
+        <v>1323.529688441073</v>
       </c>
       <c r="O36" t="n">
-        <v>1180.121027262668</v>
+        <v>1536.985598331011</v>
       </c>
       <c r="P36" t="n">
-        <v>1343.608321726251</v>
+        <v>1700.472892794594</v>
       </c>
       <c r="Q36" t="n">
-        <v>1789.542545024816</v>
+        <v>1789.542545024817</v>
       </c>
       <c r="R36" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="S36" t="n">
-        <v>1801.754437569962</v>
+        <v>1715.3211652896</v>
       </c>
       <c r="T36" t="n">
-        <v>1647.09041126802</v>
+        <v>1560.657138987658</v>
       </c>
       <c r="U36" t="n">
-        <v>1449.815952487486</v>
+        <v>1363.382680207124</v>
       </c>
       <c r="V36" t="n">
-        <v>1236.104425480519</v>
+        <v>1149.671153200158</v>
       </c>
       <c r="W36" t="n">
-        <v>1022.871257216848</v>
+        <v>936.4379849364863</v>
       </c>
       <c r="X36" t="n">
-        <v>846.5452753557411</v>
+        <v>760.1120030753791</v>
       </c>
       <c r="Y36" t="n">
-        <v>687.1433157195711</v>
+        <v>600.7100434392091</v>
       </c>
     </row>
     <row r="37">
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>616.283869216115</v>
+        <v>526.4382828870682</v>
       </c>
       <c r="C37" t="n">
-        <v>616.283869216115</v>
+        <v>526.4382828870682</v>
       </c>
       <c r="D37" t="n">
-        <v>616.283869216115</v>
+        <v>366.9436382099783</v>
       </c>
       <c r="E37" t="n">
-        <v>455.3730540844345</v>
+        <v>366.9436382099783</v>
       </c>
       <c r="F37" t="n">
-        <v>290.7419281950258</v>
+        <v>202.3125123205695</v>
       </c>
       <c r="G37" t="n">
-        <v>124.4645046258555</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="H37" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="I37" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="J37" t="n">
-        <v>54.50164000586022</v>
+        <v>117.5375436081382</v>
       </c>
       <c r="K37" t="n">
-        <v>319.8455829615472</v>
+        <v>248.7087649870802</v>
       </c>
       <c r="L37" t="n">
-        <v>407.5386952873223</v>
+        <v>336.4018773128553</v>
       </c>
       <c r="M37" t="n">
-        <v>846.2847408882508</v>
+        <v>775.1479229137838</v>
       </c>
       <c r="N37" t="n">
-        <v>941.0168634017895</v>
+        <v>1201.914346874908</v>
       </c>
       <c r="O37" t="n">
-        <v>1335.365269788488</v>
+        <v>1596.262753261606</v>
       </c>
       <c r="P37" t="n">
-        <v>1656.37495487893</v>
+        <v>1656.374954878931</v>
       </c>
       <c r="Q37" t="n">
         <v>1801.754437569962</v>
@@ -7125,22 +7125,22 @@
         <v>1632.318839519271</v>
       </c>
       <c r="T37" t="n">
-        <v>1632.318839519271</v>
+        <v>1396.927325291287</v>
       </c>
       <c r="U37" t="n">
-        <v>1632.318839519271</v>
+        <v>1114.182248792245</v>
       </c>
       <c r="V37" t="n">
-        <v>1358.433094458793</v>
+        <v>840.296503731767</v>
       </c>
       <c r="W37" t="n">
-        <v>1079.363429967667</v>
+        <v>561.2268392406413</v>
       </c>
       <c r="X37" t="n">
-        <v>841.0195678273503</v>
+        <v>561.2268392406413</v>
       </c>
       <c r="Y37" t="n">
-        <v>616.283869216115</v>
+        <v>561.2268392406413</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1264.963824828172</v>
+        <v>1092.968326299141</v>
       </c>
       <c r="C38" t="n">
-        <v>854.839234141442</v>
+        <v>1092.968326299141</v>
       </c>
       <c r="D38" t="n">
-        <v>450.3753042345026</v>
+        <v>688.5043963922014</v>
       </c>
       <c r="E38" t="n">
-        <v>36.03508875139925</v>
+        <v>688.5043963922014</v>
       </c>
       <c r="F38" t="n">
-        <v>36.03508875139925</v>
+        <v>267.473984345889</v>
       </c>
       <c r="G38" t="n">
-        <v>36.03508875139925</v>
+        <v>267.473984345889</v>
       </c>
       <c r="H38" t="n">
-        <v>36.03508875139925</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="I38" t="n">
         <v>36.03508875139925</v>
       </c>
       <c r="J38" t="n">
-        <v>143.8778192802974</v>
+        <v>143.8778192802975</v>
       </c>
       <c r="K38" t="n">
-        <v>326.0552168887696</v>
+        <v>326.0552168887695</v>
       </c>
       <c r="L38" t="n">
-        <v>567.0076014019883</v>
+        <v>567.0076014019884</v>
       </c>
       <c r="M38" t="n">
-        <v>847.9396778919399</v>
+        <v>847.9396778919402</v>
       </c>
       <c r="N38" t="n">
         <v>1135.28612147837</v>
@@ -7201,25 +7201,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S38" t="n">
-        <v>1801.754437569962</v>
+        <v>1715.900911697253</v>
       </c>
       <c r="T38" t="n">
-        <v>1801.754437569962</v>
+        <v>1503.18950596363</v>
       </c>
       <c r="U38" t="n">
-        <v>1544.867470961525</v>
+        <v>1503.18950596363</v>
       </c>
       <c r="V38" t="n">
-        <v>1544.867470961525</v>
+        <v>1503.18950596363</v>
       </c>
       <c r="W38" t="n">
-        <v>1544.867470961525</v>
+        <v>1503.18950596363</v>
       </c>
       <c r="X38" t="n">
-        <v>1544.867470961525</v>
+        <v>1503.18950596363</v>
       </c>
       <c r="Y38" t="n">
-        <v>1544.867470961525</v>
+        <v>1503.18950596363</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>572.788422278707</v>
+        <v>681.7483020962025</v>
       </c>
       <c r="C39" t="n">
-        <v>438.7933510276526</v>
+        <v>547.7532308451481</v>
       </c>
       <c r="D39" t="n">
-        <v>321.8961932470451</v>
+        <v>430.8560730645405</v>
       </c>
       <c r="E39" t="n">
-        <v>201.4033772393731</v>
+        <v>310.3632570568685</v>
       </c>
       <c r="F39" t="n">
         <v>201.4033772393731</v>
@@ -7250,31 +7250,31 @@
         <v>36.03508875139925</v>
       </c>
       <c r="I39" t="n">
-        <v>36.03508875139925</v>
+        <v>54.86182750109194</v>
       </c>
       <c r="J39" t="n">
-        <v>92.64425224016351</v>
+        <v>355.1393949644895</v>
       </c>
       <c r="K39" t="n">
-        <v>221.0510332309565</v>
+        <v>483.5461759552825</v>
       </c>
       <c r="L39" t="n">
-        <v>412.4704258219193</v>
+        <v>674.9655685462453</v>
       </c>
       <c r="M39" t="n">
-        <v>645.1171517338796</v>
+        <v>906.1825026402054</v>
       </c>
       <c r="N39" t="n">
-        <v>1091.051375032445</v>
+        <v>1149.35456216305</v>
       </c>
       <c r="O39" t="n">
-        <v>1536.985598331011</v>
+        <v>1362.810472052988</v>
       </c>
       <c r="P39" t="n">
-        <v>1700.472892794594</v>
+        <v>1526.29776651657</v>
       </c>
       <c r="Q39" t="n">
-        <v>1789.542545024817</v>
+        <v>1701.572828547836</v>
       </c>
       <c r="R39" t="n">
         <v>1801.754437569962</v>
@@ -7283,22 +7283,22 @@
         <v>1801.754437569962</v>
       </c>
       <c r="T39" t="n">
-        <v>1673.038550462743</v>
+        <v>1647.090411268021</v>
       </c>
       <c r="U39" t="n">
-        <v>1475.764091682208</v>
+        <v>1449.815952487486</v>
       </c>
       <c r="V39" t="n">
-        <v>1262.052564675242</v>
+        <v>1371.012444492737</v>
       </c>
       <c r="W39" t="n">
-        <v>1048.819396411571</v>
+        <v>1157.779276229066</v>
       </c>
       <c r="X39" t="n">
-        <v>872.4934145504636</v>
+        <v>981.4532943679591</v>
       </c>
       <c r="Y39" t="n">
-        <v>713.0914549142936</v>
+        <v>822.0513347317891</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>427.8610987264873</v>
+        <v>550.3279530388232</v>
       </c>
       <c r="C40" t="n">
-        <v>256.7677262882038</v>
+        <v>550.3279530388232</v>
       </c>
       <c r="D40" t="n">
-        <v>256.7677262882038</v>
+        <v>390.8333083617333</v>
       </c>
       <c r="E40" t="n">
-        <v>256.7677262882038</v>
+        <v>229.9224932300527</v>
       </c>
       <c r="F40" t="n">
-        <v>92.13660039879505</v>
+        <v>229.9224932300527</v>
       </c>
       <c r="G40" t="n">
-        <v>36.03508875139925</v>
+        <v>63.64506966088246</v>
       </c>
       <c r="H40" t="n">
         <v>36.03508875139925</v>
@@ -7332,25 +7332,25 @@
         <v>36.03508875139925</v>
       </c>
       <c r="J40" t="n">
-        <v>52.53617997680181</v>
+        <v>117.5375436081382</v>
       </c>
       <c r="K40" t="n">
-        <v>111.5999293467747</v>
+        <v>382.8814865638252</v>
       </c>
       <c r="L40" t="n">
-        <v>462.6758375186921</v>
+        <v>784.5537101246234</v>
       </c>
       <c r="M40" t="n">
-        <v>901.4218831196206</v>
+        <v>1223.299755725552</v>
       </c>
       <c r="N40" t="n">
-        <v>1328.188307080745</v>
+        <v>1318.031878239091</v>
       </c>
       <c r="O40" t="n">
-        <v>1722.536713467443</v>
+        <v>1397.305525207049</v>
       </c>
       <c r="P40" t="n">
-        <v>1782.648915084768</v>
+        <v>1718.315210297491</v>
       </c>
       <c r="Q40" t="n">
         <v>1801.754437569962</v>
@@ -7359,25 +7359,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S40" t="n">
-        <v>1632.318839519271</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T40" t="n">
-        <v>1396.927325291287</v>
+        <v>1566.362923341979</v>
       </c>
       <c r="U40" t="n">
-        <v>1114.182248792245</v>
+        <v>1566.362923341979</v>
       </c>
       <c r="V40" t="n">
-        <v>840.296503731767</v>
+        <v>1292.477178281501</v>
       </c>
       <c r="W40" t="n">
-        <v>840.296503731767</v>
+        <v>1013.407513790375</v>
       </c>
       <c r="X40" t="n">
-        <v>840.296503731767</v>
+        <v>775.0636516500585</v>
       </c>
       <c r="Y40" t="n">
-        <v>615.5608051205317</v>
+        <v>550.3279530388232</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>446.1596794381292</v>
+        <v>459.7944178122772</v>
       </c>
       <c r="C41" t="n">
-        <v>36.03508875139924</v>
+        <v>459.7944178122772</v>
       </c>
       <c r="D41" t="n">
-        <v>36.03508875139924</v>
+        <v>459.7944178122772</v>
       </c>
       <c r="E41" t="n">
-        <v>36.03508875139924</v>
+        <v>459.7944178122772</v>
       </c>
       <c r="F41" t="n">
-        <v>36.03508875139924</v>
+        <v>38.76400576596472</v>
       </c>
       <c r="G41" t="n">
-        <v>36.03508875139924</v>
+        <v>38.76400576596472</v>
       </c>
       <c r="H41" t="n">
-        <v>36.03508875139924</v>
+        <v>38.76400576596472</v>
       </c>
       <c r="I41" t="n">
         <v>36.03508875139924</v>
@@ -7444,19 +7444,19 @@
         <v>1801.754437569962</v>
       </c>
       <c r="U41" t="n">
-        <v>1657.960929985576</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="V41" t="n">
-        <v>1657.960929985576</v>
+        <v>1451.916882906443</v>
       </c>
       <c r="W41" t="n">
-        <v>1657.960929985576</v>
+        <v>1068.156582041611</v>
       </c>
       <c r="X41" t="n">
-        <v>1257.317532154529</v>
+        <v>860.7310908641871</v>
       </c>
       <c r="Y41" t="n">
-        <v>856.3808591026186</v>
+        <v>459.7944178122772</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>516.3800136082286</v>
+        <v>546.8402830839844</v>
       </c>
       <c r="C42" t="n">
-        <v>382.3849423571743</v>
+        <v>412.8452118329301</v>
       </c>
       <c r="D42" t="n">
-        <v>265.4877845765667</v>
+        <v>295.9480540523226</v>
       </c>
       <c r="E42" t="n">
-        <v>144.9949685688946</v>
+        <v>175.4552380446505</v>
       </c>
       <c r="F42" t="n">
-        <v>36.03508875139924</v>
+        <v>66.49535822715512</v>
       </c>
       <c r="G42" t="n">
         <v>36.03508875139924</v>
@@ -7487,55 +7487,55 @@
         <v>36.03508875139924</v>
       </c>
       <c r="I42" t="n">
-        <v>36.03508875139924</v>
+        <v>54.86182750109193</v>
       </c>
       <c r="J42" t="n">
-        <v>172.4499501741698</v>
+        <v>355.1393949644894</v>
       </c>
       <c r="K42" t="n">
-        <v>300.8567311649628</v>
+        <v>569.7515857563242</v>
       </c>
       <c r="L42" t="n">
-        <v>492.2761237559256</v>
+        <v>761.170978347287</v>
       </c>
       <c r="M42" t="n">
-        <v>723.4930578498856</v>
+        <v>992.3879124412471</v>
       </c>
       <c r="N42" t="n">
-        <v>966.6651173727304</v>
+        <v>1235.559971964092</v>
       </c>
       <c r="O42" t="n">
-        <v>1180.121027262668</v>
+        <v>1449.015881854029</v>
       </c>
       <c r="P42" t="n">
-        <v>1343.608321726251</v>
+        <v>1612.503176317612</v>
       </c>
       <c r="Q42" t="n">
-        <v>1789.542545024816</v>
+        <v>1701.572828547835</v>
       </c>
       <c r="R42" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="S42" t="n">
-        <v>1715.3211652896</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T42" t="n">
-        <v>1560.657138987658</v>
+        <v>1647.09041126802</v>
       </c>
       <c r="U42" t="n">
-        <v>1419.35568301173</v>
+        <v>1449.815952487486</v>
       </c>
       <c r="V42" t="n">
-        <v>1205.644156004764</v>
+        <v>1236.104425480519</v>
       </c>
       <c r="W42" t="n">
-        <v>992.4109877410924</v>
+        <v>1022.871257216848</v>
       </c>
       <c r="X42" t="n">
-        <v>816.0850058799853</v>
+        <v>846.5452753557411</v>
       </c>
       <c r="Y42" t="n">
-        <v>656.6830462438153</v>
+        <v>687.1433157195711</v>
       </c>
     </row>
     <row r="43">
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1086.48561947764</v>
+        <v>531.2542317561815</v>
       </c>
       <c r="C43" t="n">
-        <v>915.3922470393566</v>
+        <v>360.160859317898</v>
       </c>
       <c r="D43" t="n">
-        <v>755.8976023622665</v>
+        <v>200.666214640808</v>
       </c>
       <c r="E43" t="n">
-        <v>594.9867872305859</v>
+        <v>200.666214640808</v>
       </c>
       <c r="F43" t="n">
-        <v>430.3556613411772</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="G43" t="n">
-        <v>264.0782377720069</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="H43" t="n">
-        <v>123.1213482153726</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I43" t="n">
         <v>36.03508875139924</v>
       </c>
       <c r="J43" t="n">
-        <v>117.5375436081382</v>
+        <v>52.5361799768018</v>
       </c>
       <c r="K43" t="n">
-        <v>382.8814865638252</v>
+        <v>111.5999293467747</v>
       </c>
       <c r="L43" t="n">
-        <v>784.5537101246234</v>
+        <v>462.6758375186917</v>
       </c>
       <c r="M43" t="n">
-        <v>1223.299755725552</v>
+        <v>901.4218831196201</v>
       </c>
       <c r="N43" t="n">
-        <v>1382.365583026367</v>
+        <v>1328.188307080744</v>
       </c>
       <c r="O43" t="n">
-        <v>1461.639229994325</v>
+        <v>1722.536713467443</v>
       </c>
       <c r="P43" t="n">
         <v>1782.648915084767</v>
@@ -7596,25 +7596,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S43" t="n">
-        <v>1801.754437569962</v>
+        <v>1632.318839519271</v>
       </c>
       <c r="T43" t="n">
-        <v>1801.754437569962</v>
+        <v>1464.77857540082</v>
       </c>
       <c r="U43" t="n">
-        <v>1801.754437569962</v>
+        <v>1182.033498901778</v>
       </c>
       <c r="V43" t="n">
-        <v>1801.754437569962</v>
+        <v>1182.033498901778</v>
       </c>
       <c r="W43" t="n">
-        <v>1737.264886623236</v>
+        <v>1182.033498901778</v>
       </c>
       <c r="X43" t="n">
-        <v>1498.92102448292</v>
+        <v>943.6896367614612</v>
       </c>
       <c r="Y43" t="n">
-        <v>1274.185325871684</v>
+        <v>718.9539381502259</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>457.0655007977117</v>
+        <v>38.76400576596472</v>
       </c>
       <c r="C44" t="n">
-        <v>457.0655007977117</v>
+        <v>38.76400576596472</v>
       </c>
       <c r="D44" t="n">
-        <v>457.0655007977117</v>
+        <v>38.76400576596472</v>
       </c>
       <c r="E44" t="n">
-        <v>457.0655007977117</v>
+        <v>38.76400576596472</v>
       </c>
       <c r="F44" t="n">
-        <v>36.03508875139924</v>
+        <v>38.76400576596472</v>
       </c>
       <c r="G44" t="n">
-        <v>36.03508875139924</v>
+        <v>38.76400576596472</v>
       </c>
       <c r="H44" t="n">
-        <v>36.03508875139924</v>
+        <v>38.76400576596472</v>
       </c>
       <c r="I44" t="n">
         <v>36.03508875139924</v>
@@ -7654,19 +7654,19 @@
         <v>326.0552168887697</v>
       </c>
       <c r="L44" t="n">
-        <v>567.0076014019879</v>
+        <v>567.0076014019885</v>
       </c>
       <c r="M44" t="n">
-        <v>847.9396778919397</v>
+        <v>847.9396778919403</v>
       </c>
       <c r="N44" t="n">
         <v>1135.28612147837</v>
       </c>
       <c r="O44" t="n">
-        <v>1401.218439165989</v>
+        <v>1401.21843916599</v>
       </c>
       <c r="P44" t="n">
-        <v>1614.21261440288</v>
+        <v>1614.212614402881</v>
       </c>
       <c r="Q44" t="n">
         <v>1754.652407274058</v>
@@ -7684,16 +7684,16 @@
         <v>1246.302539355193</v>
       </c>
       <c r="V44" t="n">
-        <v>896.4649846916736</v>
+        <v>1224.104377513753</v>
       </c>
       <c r="W44" t="n">
-        <v>512.7046838268423</v>
+        <v>840.3440766489221</v>
       </c>
       <c r="X44" t="n">
-        <v>457.0655007977117</v>
+        <v>439.7006788178746</v>
       </c>
       <c r="Y44" t="n">
-        <v>457.0655007977117</v>
+        <v>38.76400576596472</v>
       </c>
     </row>
     <row r="45">
@@ -7712,43 +7712,43 @@
         <v>209.5147817719601</v>
       </c>
       <c r="E45" t="n">
-        <v>89.02196576428813</v>
+        <v>209.5147817719601</v>
       </c>
       <c r="F45" t="n">
-        <v>36.03508875139924</v>
+        <v>100.5549019544647</v>
       </c>
       <c r="G45" t="n">
-        <v>36.03508875139924</v>
+        <v>95.57381618866215</v>
       </c>
       <c r="H45" t="n">
         <v>36.03508875139924</v>
       </c>
       <c r="I45" t="n">
-        <v>36.03508875139924</v>
+        <v>54.86182750109193</v>
       </c>
       <c r="J45" t="n">
-        <v>336.3126562147968</v>
+        <v>111.4709909898562</v>
       </c>
       <c r="K45" t="n">
-        <v>464.7194372055898</v>
+        <v>239.8777719806492</v>
       </c>
       <c r="L45" t="n">
-        <v>656.1388297965526</v>
+        <v>685.8119952792148</v>
       </c>
       <c r="M45" t="n">
-        <v>887.3557638905127</v>
+        <v>917.0289293731748</v>
       </c>
       <c r="N45" t="n">
-        <v>1130.527823413358</v>
+        <v>1160.20098889602</v>
       </c>
       <c r="O45" t="n">
-        <v>1343.983733303295</v>
+        <v>1449.015881854029</v>
       </c>
       <c r="P45" t="n">
-        <v>1507.471027766878</v>
+        <v>1612.503176317612</v>
       </c>
       <c r="Q45" t="n">
-        <v>1789.542545024816</v>
+        <v>1701.572828547835</v>
       </c>
       <c r="R45" t="n">
         <v>1801.754437569962</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>294.2147206536561</v>
+        <v>534.3166998905335</v>
       </c>
       <c r="C46" t="n">
-        <v>123.1213482153726</v>
+        <v>363.22332745225</v>
       </c>
       <c r="D46" t="n">
-        <v>123.1213482153726</v>
+        <v>363.22332745225</v>
       </c>
       <c r="E46" t="n">
-        <v>123.1213482153726</v>
+        <v>202.3125123205695</v>
       </c>
       <c r="F46" t="n">
-        <v>123.1213482153726</v>
+        <v>202.3125123205695</v>
       </c>
       <c r="G46" t="n">
-        <v>123.1213482153726</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="H46" t="n">
-        <v>123.1213482153726</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I46" t="n">
         <v>36.03508875139924</v>
@@ -7812,46 +7812,46 @@
         <v>382.8814865638252</v>
       </c>
       <c r="L46" t="n">
-        <v>470.5745988896003</v>
+        <v>784.5537101246234</v>
       </c>
       <c r="M46" t="n">
-        <v>909.3206444905288</v>
+        <v>878.3334062112664</v>
       </c>
       <c r="N46" t="n">
-        <v>1256.09162282053</v>
+        <v>1305.099830172391</v>
       </c>
       <c r="O46" t="n">
-        <v>1335.365269788488</v>
+        <v>1384.373477140349</v>
       </c>
       <c r="P46" t="n">
-        <v>1656.37495487893</v>
+        <v>1705.383162230791</v>
       </c>
       <c r="Q46" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="R46" t="n">
-        <v>1760.229876346689</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="S46" t="n">
-        <v>1590.794278295997</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T46" t="n">
-        <v>1355.402764068014</v>
+        <v>1566.362923341978</v>
       </c>
       <c r="U46" t="n">
-        <v>1072.657687568972</v>
+        <v>1566.362923341978</v>
       </c>
       <c r="V46" t="n">
-        <v>798.7719425084936</v>
+        <v>1292.4771782815</v>
       </c>
       <c r="W46" t="n">
-        <v>706.6501256589357</v>
+        <v>1013.407513790375</v>
       </c>
       <c r="X46" t="n">
-        <v>706.6501256589357</v>
+        <v>946.7521048958132</v>
       </c>
       <c r="Y46" t="n">
-        <v>481.9144270477004</v>
+        <v>722.0164062845779</v>
       </c>
     </row>
   </sheetData>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7485506060653648</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>87.07617151620443</v>
       </c>
       <c r="L12" t="n">
-        <v>257.0856875834372</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>183.9953922169153</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8853,22 +8853,22 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L13" t="n">
-        <v>182.7293311535306</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M13" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N13" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q13" t="n">
-        <v>127.5494547533709</v>
+        <v>64.98354018916864</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7485506060653648</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
         <v>246.129700984478</v>
@@ -9020,13 +9020,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>106.0930793441766</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>87.07617151620391</v>
       </c>
       <c r="R15" t="n">
         <v>88.85829947169823</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>208.3638319047618</v>
@@ -9096,16 +9096,16 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>231.1604223738414</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O16" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>88.97963690877845</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>87.07617151620369</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>87.07617151620391</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>88.85829947169823</v>
@@ -9327,13 +9327,13 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L19" t="n">
-        <v>46.74597431789329</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M19" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N19" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -9342,7 +9342,7 @@
         <v>263.5328115890082</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>64.98354018916839</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>87.07617151620445</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>360.4692637053964</v>
       </c>
       <c r="R21" t="n">
-        <v>88.85829947169823</v>
+        <v>61.59490826698428</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,22 +9561,22 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>254.5847028449122</v>
       </c>
       <c r="M22" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N22" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>72.83583031209008</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q22" t="n">
         <v>127.5494547533709</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.7485506060653648</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>80.61181609495659</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>360.4692637053964</v>
+        <v>87.07617151620417</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9801,10 +9801,10 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>317.1506174091142</v>
+        <v>266.0432281274165</v>
       </c>
       <c r="M25" t="n">
-        <v>297.3434688135407</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N25" t="n">
         <v>335.3881832803894</v>
@@ -9953,10 +9953,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>87.07617151620417</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>333.2058725006825</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>88.85829947169823</v>
@@ -10038,7 +10038,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>266.0432281274165</v>
       </c>
       <c r="M28" t="n">
         <v>348.4508580952379</v>
@@ -10050,10 +10050,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P28" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.510416538408837</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.7485506060653648</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10199,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>66.92285221251012</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>285.2999281161445</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>87.07617151620417</v>
       </c>
       <c r="R30" t="n">
         <v>88.85829947169823</v>
@@ -10275,10 +10275,10 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M31" t="n">
-        <v>348.4508580952379</v>
+        <v>297.3434688135402</v>
       </c>
       <c r="N31" t="n">
         <v>335.3881832803894</v>
@@ -10287,10 +10287,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P31" t="n">
-        <v>138.4937733740459</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>0.3677548205353105</v>
+        <v>47.90594438453765</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10436,22 +10436,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>216.8861507117229</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>204.8102664401222</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>285.2999281161445</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,13 +10506,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>266.0432281274165</v>
       </c>
       <c r="M34" t="n">
         <v>348.4508580952379</v>
@@ -10524,7 +10524,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P34" t="n">
-        <v>200.3852850654606</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>61.5949082669834</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>175.9344709879023</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>360.4692637053963</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10743,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.985313160665072</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K37" t="n">
-        <v>208.3638319047618</v>
+        <v>72.83583031209002</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -10755,13 +10755,13 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O37" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P37" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>127.5494547533709</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.7485506060653648</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10910,22 +10910,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1.44423415959622</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>204.8102664401222</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>234.8265792006343</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>87.07617151620417</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L40" t="n">
-        <v>266.0432281274165</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M40" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N40" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>64.98354018916841</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.7485506060653648</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>80.6118160949558</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>87.07617151620377</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>360.4692637053963</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,25 +11217,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>317.1506174091142</v>
+        <v>266.043228127416</v>
       </c>
       <c r="M43" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N43" t="n">
-        <v>64.98354018916801</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P43" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11372,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.7485506060653648</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>257.0856875834371</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>76.12018491724447</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>194.9513788158741</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11460,13 +11460,13 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M46" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>254.5847028449115</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -11475,7 +11475,7 @@
         <v>263.5328115890082</v>
       </c>
       <c r="Q46" t="n">
-        <v>127.5494547533709</v>
+        <v>78.04621500401639</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23266,16 +23266,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
         <v>402.4936277569416</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>285.807623447931</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>84.99499061398262</v>
       </c>
       <c r="T11" t="n">
-        <v>210.5842916762861</v>
+        <v>2.101745099537766</v>
       </c>
       <c r="U11" t="n">
         <v>254.3180969423526</v>
       </c>
       <c r="V11" t="n">
-        <v>100.9529799339678</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -23345,16 +23345,16 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>6.486331920129842</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F12" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>104.7712654402038</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>58.94334016289027</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23396,7 +23396,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>40.89665036916827</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>159.3017069803637</v>
@@ -23433,10 +23433,10 @@
         <v>164.6146493334786</v>
       </c>
       <c r="H13" t="n">
-        <v>139.5473206610679</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>86.2153968693336</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>41.10931561104033</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>65.83364464006073</v>
+        <v>141.8610346471256</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9176257340516</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -23503,7 +23503,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>20.19789645496138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>210.5842916762861</v>
       </c>
       <c r="U14" t="n">
-        <v>254.3180969423526</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -23560,7 +23560,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>166.5946088257733</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -23585,10 +23585,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>55.41327277656003</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>104.7712654402038</v>
       </c>
       <c r="H15" t="n">
         <v>58.94334016289027</v>
@@ -23624,10 +23624,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>85.56893955755871</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>74.61559865920476</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>69.44654772088978</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>86.21539686933359</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>15.05078926780186</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.0375990857039</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9176257340516</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>175.2468304899454</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>179.6063298638019</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
         <v>402.4936277569416</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.99499061398262</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>210.5842916762861</v>
@@ -23791,7 +23791,7 @@
         <v>254.3180969423526</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
@@ -23800,7 +23800,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23810,13 +23810,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>133.5589388220953</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>55.41327277656001</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -23825,10 +23825,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>104.7712654402038</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>58.94334016289027</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>85.56893955755871</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>165.4409571008309</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.6146493334786</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>139.5473206610679</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>9.699443229674955</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.0375990857039</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9176257340516</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>43.13392252118439</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>402.4936277569416</v>
@@ -23989,7 +23989,7 @@
         <v>285.807623447931</v>
       </c>
       <c r="I20" t="n">
-        <v>2.701627844419818</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.99499061398262</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>210.5842916762861</v>
+        <v>189.3779887061395</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.3180969423526</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
@@ -24098,13 +24098,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>23.82616418692451</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>195.3017141927292</v>
+        <v>61.31993833984549</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="22">
@@ -24129,7 +24129,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>139.5473206610679</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>86.2153968693336</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,22 +24180,22 @@
         <v>167.7412420701844</v>
       </c>
       <c r="T22" t="n">
-        <v>47.8509037376821</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>45.26125114227298</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24217,13 +24217,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>402.4936277569416</v>
+        <v>354.353443712318</v>
       </c>
       <c r="H23" t="n">
-        <v>285.807623447931</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>2.701627844419818</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>84.99499061398262</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>210.5842916762861</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>321.6613710494386</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24299,7 +24299,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>104.7712654402038</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>58.94334016289027</v>
@@ -24338,13 +24338,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>55.41327277655996</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>2.376598176955497</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="25">
@@ -24381,7 +24381,7 @@
         <v>164.6146493334786</v>
       </c>
       <c r="H25" t="n">
-        <v>139.5473206610679</v>
+        <v>96.13772008067396</v>
       </c>
       <c r="I25" t="n">
         <v>86.2153968693336</v>
@@ -24414,7 +24414,7 @@
         <v>41.10931561104033</v>
       </c>
       <c r="S25" t="n">
-        <v>124.3316414897904</v>
+        <v>167.7412420701844</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>402.4936277569416</v>
+        <v>95.79436746016916</v>
       </c>
       <c r="H26" t="n">
         <v>285.807623447931</v>
       </c>
       <c r="I26" t="n">
-        <v>2.701627844419818</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.39682715782082</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.3180969423526</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
@@ -24539,7 +24539,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>23.82616418692488</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24572,13 +24572,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>85.56893955755871</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>133.558938822095</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>195.3017141927292</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
@@ -24612,7 +24612,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>55.92005367831723</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.6146493334786</v>
@@ -24651,13 +24651,13 @@
         <v>41.10931561104033</v>
       </c>
       <c r="S28" t="n">
-        <v>167.7412420701844</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>233.0375990857039</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>54.27885703460126</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24688,19 +24688,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>402.4936277569416</v>
+        <v>249.3740953966926</v>
       </c>
       <c r="H29" t="n">
-        <v>285.807623447931</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>2.701627844419818</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>84.99499061398262</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>210.5842916762861</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>26.08208875917006</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -24773,10 +24773,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>104.7712654402038</v>
+        <v>66.01049234073182</v>
       </c>
       <c r="H30" t="n">
-        <v>58.94334016289027</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24809,10 +24809,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>55.41327277656012</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>153.1173860389223</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24846,13 +24846,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>27.78091048959428</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>139.5473206610679</v>
@@ -24888,19 +24888,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>167.7412420701844</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>233.0375990857039</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9176257340516</v>
+        <v>148.0211764466108</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>160.0098549015977</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>155.5023269744922</v>
       </c>
       <c r="I32" t="n">
-        <v>2.701627844419818</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -25013,7 +25013,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>58.94334016289027</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25046,10 +25046,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>85.56893955755871</v>
+        <v>21.28453590753305</v>
       </c>
       <c r="T33" t="n">
-        <v>133.5589388220952</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>139.5473206610679</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>86.2153968693336</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>41.10931561104033</v>
       </c>
       <c r="S34" t="n">
-        <v>167.7412420701844</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>213.1501458635833</v>
+        <v>202.9217614789207</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>258.2743525224624</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>402.4936277569416</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>285.807623447931</v>
       </c>
       <c r="I35" t="n">
-        <v>2.701627844419818</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>84.99499061398262</v>
       </c>
       <c r="T35" t="n">
-        <v>210.5842916762861</v>
+        <v>94.60547537175492</v>
       </c>
       <c r="U35" t="n">
         <v>254.3180969423526</v>
@@ -25241,13 +25241,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>74.61559865920546</v>
+        <v>40.89665036916852</v>
       </c>
       <c r="H36" t="n">
         <v>58.94334016289027</v>
@@ -25283,7 +25283,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>85.56893955755871</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>151.3820385400666</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>52.00219894535627</v>
+        <v>139.5473206610679</v>
       </c>
       <c r="I37" t="n">
         <v>86.2153968693336</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>233.0375990857039</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9176257340516</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>129.0143581958246</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>402.4936277569416</v>
       </c>
       <c r="H38" t="n">
-        <v>285.807623447931</v>
+        <v>59.38474465380594</v>
       </c>
       <c r="I38" t="n">
-        <v>2.701627844419818</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.99499061398262</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>210.5842916762861</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.3180969423526</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -25481,7 +25481,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -25523,13 +25523,13 @@
         <v>85.56893955755871</v>
       </c>
       <c r="T39" t="n">
-        <v>25.68865780277498</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>133.5589388220952</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>109.0741528025567</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>139.5473206610679</v>
+        <v>112.2134395606796</v>
       </c>
       <c r="I40" t="n">
         <v>86.2153968693336</v>
@@ -25599,22 +25599,22 @@
         <v>41.10931561104033</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>167.7412420701844</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9176257340516</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
@@ -25639,7 +25639,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>402.4936277569416</v>
@@ -25648,7 +25648,7 @@
         <v>285.807623447931</v>
       </c>
       <c r="I41" t="n">
-        <v>2.701627844419818</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,16 +25684,16 @@
         <v>210.5842916762861</v>
       </c>
       <c r="U41" t="n">
-        <v>111.9625244338106</v>
+        <v>254.3180969423526</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>191.2857275870871</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25721,7 +25721,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>104.7712654402038</v>
+        <v>74.61559865920546</v>
       </c>
       <c r="H42" t="n">
         <v>58.94334016289027</v>
@@ -25757,13 +25757,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>85.56893955755871</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>55.4132727765606</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.6146493334786</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>139.5473206610679</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>86.2153968693336</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,19 +25836,19 @@
         <v>41.10931561104033</v>
       </c>
       <c r="S43" t="n">
-        <v>167.7412420701844</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>233.0375990857039</v>
+        <v>67.1727376084379</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9176257340516</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>212.4343124089558</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25876,7 +25876,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>402.4936277569416</v>
@@ -25885,7 +25885,7 @@
         <v>285.807623447931</v>
       </c>
       <c r="I44" t="n">
-        <v>2.701627844419818</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25924,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>324.362998893859</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>341.5541726538978</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25952,16 +25952,16 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
-        <v>55.41327277656047</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>104.7712654402038</v>
+        <v>99.83999053205923</v>
       </c>
       <c r="H45" t="n">
-        <v>58.94334016289027</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>164.6146493334786</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>139.5473206610679</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>86.2153968693336</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>41.10931561104033</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>167.7412420701844</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9176257340516</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>185.0783691651521</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>169.9715687132976</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>402964.746310431</v>
+        <v>402964.7463104312</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>402964.7463104312</v>
+        <v>402964.746310431</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>402964.7463104312</v>
+        <v>402964.746310431</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>402964.7463104312</v>
+        <v>402964.746310431</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>402964.7463104311</v>
+        <v>402964.746310431</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>402964.746310431</v>
+        <v>402964.7463104311</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>402964.7463104311</v>
+        <v>402964.7463104312</v>
       </c>
     </row>
     <row r="15">
@@ -26322,19 +26322,19 @@
         <v>469807.030961604</v>
       </c>
       <c r="E2" t="n">
-        <v>268504.2847942373</v>
+        <v>268504.2847942375</v>
       </c>
       <c r="F2" t="n">
         <v>268504.2847942374</v>
       </c>
       <c r="G2" t="n">
+        <v>268504.2847942375</v>
+      </c>
+      <c r="H2" t="n">
+        <v>268504.2847942375</v>
+      </c>
+      <c r="I2" t="n">
         <v>268504.2847942374</v>
-      </c>
-      <c r="H2" t="n">
-        <v>268504.2847942374</v>
-      </c>
-      <c r="I2" t="n">
-        <v>268504.2847942375</v>
       </c>
       <c r="J2" t="n">
         <v>268504.2847942375</v>
@@ -26343,16 +26343,16 @@
         <v>268504.2847942373</v>
       </c>
       <c r="L2" t="n">
+        <v>268504.2847942375</v>
+      </c>
+      <c r="M2" t="n">
         <v>268504.2847942374</v>
       </c>
-      <c r="M2" t="n">
-        <v>268504.2847942373</v>
-      </c>
       <c r="N2" t="n">
-        <v>268504.2847942373</v>
+        <v>268504.2847942375</v>
       </c>
       <c r="O2" t="n">
-        <v>268504.2847942373</v>
+        <v>268504.2847942374</v>
       </c>
       <c r="P2" t="n">
         <v>268504.2847942373</v>
@@ -26426,10 +26426,10 @@
         <v>360572.7585570244</v>
       </c>
       <c r="E4" t="n">
-        <v>23745.83874464411</v>
+        <v>23745.83874464412</v>
       </c>
       <c r="F4" t="n">
-        <v>23745.83874464411</v>
+        <v>23745.8387446441</v>
       </c>
       <c r="G4" t="n">
         <v>23745.8387446441</v>
@@ -26438,25 +26438,25 @@
         <v>23745.83874464412</v>
       </c>
       <c r="I4" t="n">
-        <v>23745.83874464412</v>
+        <v>23745.83874464411</v>
       </c>
       <c r="J4" t="n">
-        <v>23745.83874464412</v>
+        <v>23745.83874464411</v>
       </c>
       <c r="K4" t="n">
-        <v>23745.83874464412</v>
+        <v>23745.83874464411</v>
       </c>
       <c r="L4" t="n">
         <v>23745.83874464411</v>
       </c>
       <c r="M4" t="n">
-        <v>23745.83874464409</v>
+        <v>23745.83874464411</v>
       </c>
       <c r="N4" t="n">
         <v>23745.83874464411</v>
       </c>
       <c r="O4" t="n">
-        <v>23745.83874464409</v>
+        <v>23745.8387446441</v>
       </c>
       <c r="P4" t="n">
         <v>23745.83874464409</v>
@@ -26478,10 +26478,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
+        <v>39031.33714783084</v>
+      </c>
+      <c r="F5" t="n">
         <v>39031.33714783083</v>
-      </c>
-      <c r="F5" t="n">
-        <v>39031.33714783084</v>
       </c>
       <c r="G5" t="n">
         <v>39031.33714783083</v>
@@ -26490,10 +26490,10 @@
         <v>39031.33714783084</v>
       </c>
       <c r="I5" t="n">
-        <v>39031.33714783084</v>
+        <v>39031.33714783083</v>
       </c>
       <c r="J5" t="n">
-        <v>39031.33714783084</v>
+        <v>39031.33714783083</v>
       </c>
       <c r="K5" t="n">
         <v>39031.33714783083</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>75606.67240457959</v>
+        <v>75597.87271895017</v>
       </c>
       <c r="C6" t="n">
-        <v>75606.67240457964</v>
+        <v>75597.87271895022</v>
       </c>
       <c r="D6" t="n">
-        <v>75606.67240457964</v>
+        <v>75597.87271895022</v>
       </c>
       <c r="E6" t="n">
-        <v>-357909.022158017</v>
+        <v>-358611.9692442234</v>
       </c>
       <c r="F6" t="n">
-        <v>205727.1089017625</v>
+        <v>205024.1618155559</v>
       </c>
       <c r="G6" t="n">
-        <v>205727.1089017625</v>
+        <v>205024.1618155561</v>
       </c>
       <c r="H6" t="n">
-        <v>205727.1089017625</v>
+        <v>205024.161815556</v>
       </c>
       <c r="I6" t="n">
-        <v>205727.1089017626</v>
+        <v>205024.1618155559</v>
       </c>
       <c r="J6" t="n">
-        <v>205727.1089017625</v>
+        <v>205024.161815556</v>
       </c>
       <c r="K6" t="n">
-        <v>205727.1089017624</v>
+        <v>205024.1618155559</v>
       </c>
       <c r="L6" t="n">
-        <v>205727.1089017625</v>
+        <v>205024.1618155561</v>
       </c>
       <c r="M6" t="n">
-        <v>93476.00568671622</v>
+        <v>92773.05860050973</v>
       </c>
       <c r="N6" t="n">
-        <v>205727.1089017623</v>
+        <v>205024.161815556</v>
       </c>
       <c r="O6" t="n">
-        <v>205727.1089017624</v>
+        <v>205024.1618155559</v>
       </c>
       <c r="P6" t="n">
-        <v>205727.1089017624</v>
+        <v>205024.1618155559</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>534.1591604021746</v>
       </c>
       <c r="F3" t="n">
-        <v>534.1591604021746</v>
+        <v>534.1591604021747</v>
       </c>
       <c r="G3" t="n">
         <v>534.1591604021747</v>
@@ -26798,10 +26798,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>450.4386093924907</v>
+      </c>
+      <c r="F4" t="n">
         <v>450.4386093924906</v>
-      </c>
-      <c r="F4" t="n">
-        <v>450.4386093924907</v>
       </c>
       <c r="G4" t="n">
         <v>450.4386093924906</v>
@@ -26810,10 +26810,10 @@
         <v>450.4386093924907</v>
       </c>
       <c r="I4" t="n">
-        <v>450.4386093924907</v>
+        <v>450.4386093924906</v>
       </c>
       <c r="J4" t="n">
-        <v>450.4386093924907</v>
+        <v>450.4386093924906</v>
       </c>
       <c r="K4" t="n">
         <v>450.4386093924906</v>
@@ -26822,7 +26822,7 @@
         <v>450.4386093924906</v>
       </c>
       <c r="M4" t="n">
-        <v>450.4386093924905</v>
+        <v>450.4386093924906</v>
       </c>
       <c r="N4" t="n">
         <v>450.4386093924906</v>
@@ -31989,19 +31989,19 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.147373509154469</v>
+        <v>2.14737350915447</v>
       </c>
       <c r="H14" t="n">
-        <v>21.99178895062821</v>
+        <v>21.99178895062822</v>
       </c>
       <c r="I14" t="n">
-        <v>82.78661721167775</v>
+        <v>82.78661721167778</v>
       </c>
       <c r="J14" t="n">
         <v>182.2556423725993</v>
       </c>
       <c r="K14" t="n">
-        <v>273.153963015108</v>
+        <v>273.1539630151081</v>
       </c>
       <c r="L14" t="n">
         <v>338.8716450458942</v>
@@ -32019,16 +32019,16 @@
         <v>308.7949948332994</v>
       </c>
       <c r="Q14" t="n">
-        <v>231.8921810367048</v>
+        <v>231.8921810367049</v>
       </c>
       <c r="R14" t="n">
         <v>134.8899511944246</v>
       </c>
       <c r="S14" t="n">
-        <v>48.93327383985751</v>
+        <v>48.93327383985753</v>
       </c>
       <c r="T14" t="n">
-        <v>9.400127536323694</v>
+        <v>9.400127536323696</v>
       </c>
       <c r="U14" t="n">
         <v>0.1717898807323575</v>
@@ -32083,34 +32083,34 @@
         <v>185.5296019672346</v>
       </c>
       <c r="L15" t="n">
-        <v>249.4674456199024</v>
+        <v>249.4674456199025</v>
       </c>
       <c r="M15" t="n">
-        <v>291.1167424191851</v>
+        <v>291.1167424191852</v>
       </c>
       <c r="N15" t="n">
-        <v>298.8217363461184</v>
+        <v>298.8217363461185</v>
       </c>
       <c r="O15" t="n">
         <v>273.3635091918563</v>
       </c>
       <c r="P15" t="n">
-        <v>219.3983162791498</v>
+        <v>219.3983162791499</v>
       </c>
       <c r="Q15" t="n">
         <v>146.661964191933</v>
       </c>
       <c r="R15" t="n">
-        <v>71.33544410050176</v>
+        <v>71.33544410050177</v>
       </c>
       <c r="S15" t="n">
         <v>21.34117022927555</v>
       </c>
       <c r="T15" t="n">
-        <v>4.631059135939607</v>
+        <v>4.631059135939608</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07558856043427002</v>
+        <v>0.07558856043427004</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,46 +32147,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9632378302334296</v>
+        <v>0.9632378302334297</v>
       </c>
       <c r="H16" t="n">
-        <v>8.564059981529953</v>
+        <v>8.564059981529955</v>
       </c>
       <c r="I16" t="n">
         <v>28.96718856738351</v>
       </c>
       <c r="J16" t="n">
-        <v>68.10091459750346</v>
+        <v>68.10091459750348</v>
       </c>
       <c r="K16" t="n">
-        <v>111.9107224580293</v>
+        <v>111.9107224580294</v>
       </c>
       <c r="L16" t="n">
         <v>143.2071952330683</v>
       </c>
       <c r="M16" t="n">
-        <v>150.9919082428638</v>
+        <v>150.9919082428639</v>
       </c>
       <c r="N16" t="n">
-        <v>147.4016581483575</v>
+        <v>147.4016581483576</v>
       </c>
       <c r="O16" t="n">
-        <v>136.1492889497215</v>
+        <v>136.1492889497216</v>
       </c>
       <c r="P16" t="n">
         <v>116.4992372129595</v>
       </c>
       <c r="Q16" t="n">
-        <v>80.65803322072837</v>
+        <v>80.65803322072838</v>
       </c>
       <c r="R16" t="n">
-        <v>43.31067553031401</v>
+        <v>43.31067553031402</v>
       </c>
       <c r="S16" t="n">
         <v>16.7866083687044</v>
       </c>
       <c r="T16" t="n">
-        <v>4.115652547361016</v>
+        <v>4.115652547361017</v>
       </c>
       <c r="U16" t="n">
         <v>0.05254024528545986</v>
@@ -34374,7 +34374,7 @@
         <v>273.153963015108</v>
       </c>
       <c r="L44" t="n">
-        <v>338.8716450458936</v>
+        <v>338.8716450458942</v>
       </c>
       <c r="M44" t="n">
         <v>377.05999868932</v>
@@ -34389,7 +34389,7 @@
         <v>308.7949948332994</v>
       </c>
       <c r="Q44" t="n">
-        <v>231.8921810367048</v>
+        <v>231.8921810367045</v>
       </c>
       <c r="R44" t="n">
         <v>134.8899511944246</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>19.01690782797241</v>
       </c>
       <c r="J12" t="n">
-        <v>57.180973220974</v>
+        <v>303.3106742054521</v>
       </c>
       <c r="K12" t="n">
-        <v>129.7038191826192</v>
+        <v>216.7799906988236</v>
       </c>
       <c r="L12" t="n">
-        <v>450.4386093924906</v>
+        <v>193.3529218090534</v>
       </c>
       <c r="M12" t="n">
         <v>233.5524586807677</v>
@@ -35503,7 +35503,7 @@
         <v>245.6283429523684</v>
       </c>
       <c r="O12" t="n">
-        <v>399.6074224087716</v>
+        <v>215.6120301918563</v>
       </c>
       <c r="P12" t="n">
         <v>165.1386812763461</v>
@@ -35512,7 +35512,7 @@
         <v>89.96934568709423</v>
       </c>
       <c r="R12" t="n">
-        <v>12.33524499509635</v>
+        <v>101.1935444667946</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35573,22 +35573,22 @@
         <v>268.0241848037243</v>
       </c>
       <c r="L13" t="n">
-        <v>271.3082324926974</v>
+        <v>405.729518748281</v>
       </c>
       <c r="M13" t="n">
         <v>443.1778238393217</v>
       </c>
       <c r="N13" t="n">
-        <v>431.0771959203275</v>
+        <v>95.6890126399381</v>
       </c>
       <c r="O13" t="n">
         <v>80.0743908767252</v>
       </c>
       <c r="P13" t="n">
-        <v>60.71939557305469</v>
+        <v>324.2522071620629</v>
       </c>
       <c r="Q13" t="n">
-        <v>146.8479623141737</v>
+        <v>84.28204774997144</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>108.9320510392914</v>
       </c>
       <c r="K14" t="n">
-        <v>184.0175733418909</v>
+        <v>184.017573341891</v>
       </c>
       <c r="L14" t="n">
         <v>243.3862469830494</v>
       </c>
       <c r="M14" t="n">
-        <v>283.7697742322745</v>
+        <v>283.7697742322746</v>
       </c>
       <c r="N14" t="n">
-        <v>290.2489329155858</v>
+        <v>290.2489329155859</v>
       </c>
       <c r="O14" t="n">
         <v>268.6185027147673</v>
       </c>
       <c r="P14" t="n">
-        <v>215.1456315524152</v>
+        <v>215.1456315524153</v>
       </c>
       <c r="Q14" t="n">
-        <v>141.8583766375528</v>
+        <v>141.8583766375529</v>
       </c>
       <c r="R14" t="n">
-        <v>47.57780837970104</v>
+        <v>47.57780837970107</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>19.01690782797242</v>
       </c>
       <c r="J15" t="n">
         <v>303.3106742054521</v>
@@ -35734,19 +35734,19 @@
         <v>193.3529218090534</v>
       </c>
       <c r="M15" t="n">
-        <v>233.5524586807677</v>
+        <v>233.5524586807678</v>
       </c>
       <c r="N15" t="n">
-        <v>245.6283429523684</v>
+        <v>245.6283429523685</v>
       </c>
       <c r="O15" t="n">
-        <v>321.7051095360329</v>
+        <v>215.6120301918563</v>
       </c>
       <c r="P15" t="n">
         <v>165.1386812763461</v>
       </c>
       <c r="Q15" t="n">
-        <v>89.96934568709423</v>
+        <v>177.0455172032982</v>
       </c>
       <c r="R15" t="n">
         <v>101.1935444667946</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>82.32571197650398</v>
+        <v>16.66776891454806</v>
       </c>
       <c r="K16" t="n">
         <v>268.0241848037243</v>
@@ -35813,19 +35813,19 @@
         <v>405.729518748281</v>
       </c>
       <c r="M16" t="n">
-        <v>94.7269657440838</v>
+        <v>94.72696574408383</v>
       </c>
       <c r="N16" t="n">
-        <v>326.8494350137794</v>
+        <v>431.0771959203275</v>
       </c>
       <c r="O16" t="n">
-        <v>398.3317236229277</v>
+        <v>398.3317236229278</v>
       </c>
       <c r="P16" t="n">
-        <v>60.71939557305469</v>
+        <v>149.6990324818332</v>
       </c>
       <c r="Q16" t="n">
-        <v>146.8479623141737</v>
+        <v>19.29850756080282</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>303.3106742054521</v>
       </c>
       <c r="K18" t="n">
-        <v>129.7038191826192</v>
+        <v>216.7799906988229</v>
       </c>
       <c r="L18" t="n">
         <v>193.3529218090534</v>
@@ -35983,7 +35983,7 @@
         <v>165.1386812763461</v>
       </c>
       <c r="Q18" t="n">
-        <v>177.0455172032982</v>
+        <v>89.96934568709426</v>
       </c>
       <c r="R18" t="n">
         <v>101.1935444667946</v>
@@ -36047,13 +36047,13 @@
         <v>268.0241848037243</v>
       </c>
       <c r="L19" t="n">
-        <v>135.3248756570601</v>
+        <v>405.729518748281</v>
       </c>
       <c r="M19" t="n">
         <v>443.1778238393217</v>
       </c>
       <c r="N19" t="n">
-        <v>431.0771959203275</v>
+        <v>95.68901263993813</v>
       </c>
       <c r="O19" t="n">
         <v>80.07439087672523</v>
@@ -36062,7 +36062,7 @@
         <v>324.2522071620629</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.29850756080282</v>
+        <v>84.28204774997121</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>19.01690782797241</v>
       </c>
       <c r="J21" t="n">
-        <v>303.3106742054521</v>
+        <v>57.180973220974</v>
       </c>
       <c r="K21" t="n">
         <v>129.7038191826192</v>
@@ -36208,7 +36208,7 @@
         <v>193.3529218090534</v>
       </c>
       <c r="M21" t="n">
-        <v>320.6286301969722</v>
+        <v>233.5524586807677</v>
       </c>
       <c r="N21" t="n">
         <v>245.6283429523684</v>
@@ -36220,10 +36220,10 @@
         <v>165.1386812763461</v>
       </c>
       <c r="Q21" t="n">
-        <v>89.96934568709423</v>
+        <v>450.4386093924907</v>
       </c>
       <c r="R21" t="n">
-        <v>101.1935444667946</v>
+        <v>73.93015326208064</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>82.32571197650398</v>
       </c>
       <c r="K22" t="n">
-        <v>59.66035289896251</v>
+        <v>268.0241848037243</v>
       </c>
       <c r="L22" t="n">
-        <v>88.57890133916675</v>
+        <v>343.1636041840789</v>
       </c>
       <c r="M22" t="n">
         <v>443.1778238393217</v>
       </c>
       <c r="N22" t="n">
-        <v>431.0771959203275</v>
+        <v>95.6890126399381</v>
       </c>
       <c r="O22" t="n">
-        <v>398.3317236229277</v>
+        <v>80.0743908767252</v>
       </c>
       <c r="P22" t="n">
-        <v>133.5552258851448</v>
+        <v>324.2522071620629</v>
       </c>
       <c r="Q22" t="n">
         <v>146.8479623141737</v>
@@ -36366,7 +36366,7 @@
         <v>243.3862469830494</v>
       </c>
       <c r="M23" t="n">
-        <v>283.7697742322746</v>
+        <v>283.7697742322745</v>
       </c>
       <c r="N23" t="n">
         <v>290.2489329155858</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>19.01690782797241</v>
       </c>
       <c r="J24" t="n">
-        <v>57.180973220974</v>
+        <v>303.3106742054521</v>
       </c>
       <c r="K24" t="n">
         <v>129.7038191826192</v>
@@ -36454,13 +36454,13 @@
         <v>215.6120301918563</v>
       </c>
       <c r="P24" t="n">
-        <v>245.7504973713027</v>
+        <v>165.1386812763461</v>
       </c>
       <c r="Q24" t="n">
-        <v>450.4386093924907</v>
+        <v>177.0455172032984</v>
       </c>
       <c r="R24" t="n">
-        <v>12.33524499509635</v>
+        <v>101.1935444667946</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36521,10 +36521,10 @@
         <v>59.66035289896251</v>
       </c>
       <c r="L25" t="n">
-        <v>405.729518748281</v>
+        <v>354.6221294665832</v>
       </c>
       <c r="M25" t="n">
-        <v>392.0704345576245</v>
+        <v>443.1778238393217</v>
       </c>
       <c r="N25" t="n">
         <v>431.0771959203275</v>
@@ -36618,7 +36618,7 @@
         <v>141.8583766375528</v>
       </c>
       <c r="R26" t="n">
-        <v>47.57780837970136</v>
+        <v>47.57780837970112</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>19.01690782797241</v>
       </c>
       <c r="J27" t="n">
-        <v>57.180973220974</v>
+        <v>303.3106742054521</v>
       </c>
       <c r="K27" t="n">
-        <v>129.7038191826192</v>
+        <v>216.7799906988234</v>
       </c>
       <c r="L27" t="n">
         <v>193.3529218090534</v>
@@ -36694,7 +36694,7 @@
         <v>165.1386812763461</v>
       </c>
       <c r="Q27" t="n">
-        <v>423.1752181877767</v>
+        <v>89.96934568709423</v>
       </c>
       <c r="R27" t="n">
         <v>101.1935444667946</v>
@@ -36758,7 +36758,7 @@
         <v>59.66035289896251</v>
       </c>
       <c r="L28" t="n">
-        <v>88.57890133916675</v>
+        <v>354.6221294665832</v>
       </c>
       <c r="M28" t="n">
         <v>443.1778238393217</v>
@@ -36770,10 +36770,10 @@
         <v>398.3317236229277</v>
       </c>
       <c r="P28" t="n">
-        <v>324.2522071620629</v>
+        <v>60.71939557305469</v>
       </c>
       <c r="Q28" t="n">
-        <v>21.80892409921164</v>
+        <v>19.2985075608028</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>243.3862469830494</v>
       </c>
       <c r="M29" t="n">
-        <v>283.7697742322745</v>
+        <v>283.7697742322744</v>
       </c>
       <c r="N29" t="n">
         <v>290.2489329155858</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>19.01690782797241</v>
       </c>
       <c r="J30" t="n">
-        <v>57.180973220974</v>
+        <v>303.3106742054521</v>
       </c>
       <c r="K30" t="n">
         <v>129.7038191826192</v>
@@ -36919,7 +36919,7 @@
         <v>193.3529218090534</v>
       </c>
       <c r="M30" t="n">
-        <v>300.4753108932778</v>
+        <v>233.5524586807677</v>
       </c>
       <c r="N30" t="n">
         <v>245.6283429523684</v>
@@ -36928,10 +36928,10 @@
         <v>215.6120301918563</v>
       </c>
       <c r="P30" t="n">
-        <v>450.4386093924906</v>
+        <v>165.1386812763461</v>
       </c>
       <c r="Q30" t="n">
-        <v>89.96934568709423</v>
+        <v>177.0455172032984</v>
       </c>
       <c r="R30" t="n">
         <v>101.1935444667946</v>
@@ -36995,10 +36995,10 @@
         <v>59.66035289896251</v>
       </c>
       <c r="L31" t="n">
-        <v>88.57890133916675</v>
+        <v>405.729518748281</v>
       </c>
       <c r="M31" t="n">
-        <v>443.1778238393217</v>
+        <v>392.070434557624</v>
       </c>
       <c r="N31" t="n">
         <v>431.0771959203275</v>
@@ -37007,10 +37007,10 @@
         <v>398.3317236229277</v>
       </c>
       <c r="P31" t="n">
-        <v>199.2131689471006</v>
+        <v>60.71939557305469</v>
       </c>
       <c r="Q31" t="n">
-        <v>146.8479623141737</v>
+        <v>19.2985075608028</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>108.9320510392914</v>
+        <v>108.9320510392912</v>
       </c>
       <c r="K32" t="n">
         <v>184.0175733418909</v>
@@ -37092,7 +37092,7 @@
         <v>141.8583766375528</v>
       </c>
       <c r="R32" t="n">
-        <v>47.57780837970112</v>
+        <v>47.57780837970104</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>19.01690782797241</v>
       </c>
       <c r="J33" t="n">
-        <v>57.54872804150931</v>
+        <v>105.0869176055117</v>
       </c>
       <c r="K33" t="n">
         <v>129.7038191826192</v>
@@ -37156,22 +37156,22 @@
         <v>193.3529218090534</v>
       </c>
       <c r="M33" t="n">
-        <v>450.4386093924906</v>
+        <v>233.5524586807677</v>
       </c>
       <c r="N33" t="n">
-        <v>450.4386093924906</v>
+        <v>245.6283429523684</v>
       </c>
       <c r="O33" t="n">
         <v>215.6120301918563</v>
       </c>
       <c r="P33" t="n">
-        <v>165.1386812763461</v>
+        <v>450.4386093924906</v>
       </c>
       <c r="Q33" t="n">
         <v>89.96934568709423</v>
       </c>
       <c r="R33" t="n">
-        <v>12.33524499509635</v>
+        <v>101.1935444667946</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>82.32571197650398</v>
+        <v>16.66776891454804</v>
       </c>
       <c r="K34" t="n">
         <v>59.66035289896251</v>
       </c>
       <c r="L34" t="n">
-        <v>88.57890133916675</v>
+        <v>354.6221294665832</v>
       </c>
       <c r="M34" t="n">
         <v>443.1778238393217</v>
@@ -37244,7 +37244,7 @@
         <v>398.3317236229277</v>
       </c>
       <c r="P34" t="n">
-        <v>261.1046806385153</v>
+        <v>60.71939557305469</v>
       </c>
       <c r="Q34" t="n">
         <v>19.2985075608028</v>
@@ -37384,7 +37384,7 @@
         <v>19.01690782797241</v>
       </c>
       <c r="J36" t="n">
-        <v>118.7758814879574</v>
+        <v>303.3106742054521</v>
       </c>
       <c r="K36" t="n">
         <v>129.7038191826192</v>
@@ -37396,7 +37396,7 @@
         <v>233.5524586807677</v>
       </c>
       <c r="N36" t="n">
-        <v>245.6283429523684</v>
+        <v>421.5628139402708</v>
       </c>
       <c r="O36" t="n">
         <v>215.6120301918563</v>
@@ -37405,7 +37405,7 @@
         <v>165.1386812763461</v>
       </c>
       <c r="Q36" t="n">
-        <v>450.4386093924905</v>
+        <v>89.96934568709423</v>
       </c>
       <c r="R36" t="n">
         <v>12.33524499509635</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>18.65308207521311</v>
+        <v>82.32571197650398</v>
       </c>
       <c r="K37" t="n">
-        <v>268.0241848037243</v>
+        <v>132.4961832110525</v>
       </c>
       <c r="L37" t="n">
         <v>88.57890133916675</v>
@@ -37475,13 +37475,13 @@
         <v>443.1778238393217</v>
       </c>
       <c r="N37" t="n">
-        <v>95.6890126399381</v>
+        <v>431.0771959203275</v>
       </c>
       <c r="O37" t="n">
         <v>398.3317236229277</v>
       </c>
       <c r="P37" t="n">
-        <v>324.2522071620629</v>
+        <v>60.71939557305469</v>
       </c>
       <c r="Q37" t="n">
         <v>146.8479623141737</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>108.9320510392914</v>
+        <v>108.9320510392912</v>
       </c>
       <c r="K38" t="n">
         <v>184.0175733418909</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>19.01690782797241</v>
       </c>
       <c r="J39" t="n">
-        <v>57.180973220974</v>
+        <v>303.3106742054521</v>
       </c>
       <c r="K39" t="n">
         <v>129.7038191826192</v>
@@ -37630,22 +37630,22 @@
         <v>193.3529218090534</v>
       </c>
       <c r="M39" t="n">
-        <v>234.9966928403639</v>
+        <v>233.5524586807677</v>
       </c>
       <c r="N39" t="n">
-        <v>450.4386093924906</v>
+        <v>245.6283429523684</v>
       </c>
       <c r="O39" t="n">
-        <v>450.4386093924906</v>
+        <v>215.6120301918563</v>
       </c>
       <c r="P39" t="n">
         <v>165.1386812763461</v>
       </c>
       <c r="Q39" t="n">
-        <v>89.96934568709423</v>
+        <v>177.0455172032984</v>
       </c>
       <c r="R39" t="n">
-        <v>12.33524499509635</v>
+        <v>101.1935444667946</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>16.66776891454804</v>
+        <v>82.32571197650398</v>
       </c>
       <c r="K40" t="n">
-        <v>59.66035289896251</v>
+        <v>268.0241848037243</v>
       </c>
       <c r="L40" t="n">
-        <v>354.6221294665832</v>
+        <v>405.729518748281</v>
       </c>
       <c r="M40" t="n">
         <v>443.1778238393217</v>
       </c>
       <c r="N40" t="n">
-        <v>431.0771959203275</v>
+        <v>95.6890126399381</v>
       </c>
       <c r="O40" t="n">
-        <v>398.3317236229277</v>
+        <v>80.0743908767252</v>
       </c>
       <c r="P40" t="n">
-        <v>60.71939557305469</v>
+        <v>324.2522071620629</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.2985075608028</v>
+        <v>84.28204774997121</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>19.01690782797241</v>
       </c>
       <c r="J42" t="n">
-        <v>137.7927893159298</v>
+        <v>303.3106742054521</v>
       </c>
       <c r="K42" t="n">
-        <v>129.7038191826192</v>
+        <v>216.779990698823</v>
       </c>
       <c r="L42" t="n">
         <v>193.3529218090534</v>
@@ -37879,10 +37879,10 @@
         <v>165.1386812763461</v>
       </c>
       <c r="Q42" t="n">
-        <v>450.4386093924905</v>
+        <v>89.96934568709423</v>
       </c>
       <c r="R42" t="n">
-        <v>12.33524499509635</v>
+        <v>101.1935444667946</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,25 +37937,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>82.32571197650398</v>
+        <v>16.66776891454804</v>
       </c>
       <c r="K43" t="n">
-        <v>268.0241848037243</v>
+        <v>59.66035289896251</v>
       </c>
       <c r="L43" t="n">
-        <v>405.729518748281</v>
+        <v>354.6221294665827</v>
       </c>
       <c r="M43" t="n">
         <v>443.1778238393217</v>
       </c>
       <c r="N43" t="n">
-        <v>160.6725528291061</v>
+        <v>431.0771959203275</v>
       </c>
       <c r="O43" t="n">
-        <v>80.0743908767252</v>
+        <v>398.3317236229277</v>
       </c>
       <c r="P43" t="n">
-        <v>324.2522071620629</v>
+        <v>60.71939557305469</v>
       </c>
       <c r="Q43" t="n">
         <v>19.2985075608028</v>
@@ -38022,7 +38022,7 @@
         <v>184.0175733418909</v>
       </c>
       <c r="L44" t="n">
-        <v>243.3862469830487</v>
+        <v>243.3862469830494</v>
       </c>
       <c r="M44" t="n">
         <v>283.7697742322745</v>
@@ -38037,7 +38037,7 @@
         <v>215.1456315524152</v>
       </c>
       <c r="Q44" t="n">
-        <v>141.8583766375528</v>
+        <v>141.8583766375524</v>
       </c>
       <c r="R44" t="n">
         <v>47.57780837970104</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>19.01690782797241</v>
       </c>
       <c r="J45" t="n">
-        <v>303.3106742054521</v>
+        <v>57.180973220974</v>
       </c>
       <c r="K45" t="n">
         <v>129.7038191826192</v>
       </c>
       <c r="L45" t="n">
-        <v>193.3529218090534</v>
+        <v>450.4386093924905</v>
       </c>
       <c r="M45" t="n">
         <v>233.5524586807677</v>
@@ -38110,16 +38110,16 @@
         <v>245.6283429523684</v>
       </c>
       <c r="O45" t="n">
-        <v>215.6120301918563</v>
+        <v>291.7322151091008</v>
       </c>
       <c r="P45" t="n">
         <v>165.1386812763461</v>
       </c>
       <c r="Q45" t="n">
-        <v>284.9207245029684</v>
+        <v>89.96934568709423</v>
       </c>
       <c r="R45" t="n">
-        <v>12.33524499509635</v>
+        <v>101.1935444667946</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38180,13 +38180,13 @@
         <v>268.0241848037243</v>
       </c>
       <c r="L46" t="n">
-        <v>88.57890133916675</v>
+        <v>405.729518748281</v>
       </c>
       <c r="M46" t="n">
-        <v>443.1778238393217</v>
+        <v>94.7269657440838</v>
       </c>
       <c r="N46" t="n">
-        <v>350.2737154848496</v>
+        <v>431.0771959203275</v>
       </c>
       <c r="O46" t="n">
         <v>80.0743908767252</v>
@@ -38195,7 +38195,7 @@
         <v>324.2522071620629</v>
       </c>
       <c r="Q46" t="n">
-        <v>146.8479623141737</v>
+        <v>97.34472256481919</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
